--- a/WIP/Documents/Report 4/UT/WS_Unit Test Case_OrganizationDAL_v1.0.xlsx
+++ b/WIP/Documents/Report 4/UT/WS_Unit Test Case_OrganizationDAL_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="886" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="886" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Guidleline" sheetId="1" r:id="rId1"/>
@@ -688,9 +688,6 @@
     <t>Database exist 44 Organization with isActive="true"</t>
   </si>
   <si>
-    <t>Database exist 50 row in Organization</t>
-  </si>
-  <si>
     <t>Get &lt;List&gt;Organization  from Database</t>
   </si>
   <si>
@@ -704,6 +701,9 @@
   </si>
   <si>
     <t>Remove Organization with Id = 10  from Database</t>
+  </si>
+  <si>
+    <t>Database exist 50 rows in Organization</t>
   </si>
 </sst>
 </file>
@@ -2904,6 +2904,96 @@
     <xf numFmtId="14" fontId="38" fillId="24" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="62" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="63" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="24" borderId="64" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="63" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="57" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="58" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="59" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="24" borderId="64" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="63" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="68" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="72" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="73" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="30" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="25" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="26" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="69" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="70" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="71" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="50" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="51" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="52" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="49" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="48" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="53" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2951,96 +3041,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="50" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="51" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="52" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="49" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="48" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="53" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="62" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="63" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="24" borderId="64" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="63" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="57" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="58" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="59" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="24" borderId="64" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="63" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="68" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="72" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="73" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="30" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="25" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="26" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="69" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="70" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="71" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5943,136 +5943,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>CountOrganizationActiveOrNot</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E21:HM21,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E21:HO21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E20:HM20,"N")</f>
         <v>0</v>
@@ -6085,16 +6085,16 @@
         <f>COUNTIF(E20:HM20,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -6401,11 +6401,11 @@
       <c r="A20" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="207"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="156" t="s">
         <v>36</v>
       </c>
@@ -6429,11 +6429,11 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="137"/>
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="135" t="s">
         <v>38</v>
       </c>
@@ -6457,11 +6457,11 @@
     </row>
     <row r="22" spans="1:18" ht="54">
       <c r="A22" s="137"/>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="134">
         <v>42594</v>
       </c>
@@ -6568,17 +6568,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:R2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:R4"/>
     <mergeCell ref="A5:B5"/>
@@ -6620,7 +6620,7 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -7144,136 +7144,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>GetAllOrganization</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E20:HM20,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E20:HO20,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E19:HM19,"N")</f>
         <v>0</v>
@@ -7286,16 +7286,16 @@
         <f>COUNTIF(E19:HM19,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -7329,7 +7329,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="142"/>
@@ -7506,7 +7506,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="137"/>
       <c r="B17" s="131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="132"/>
       <c r="D17" s="133"/>
@@ -7551,11 +7551,11 @@
       <c r="A19" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="205" t="s">
+      <c r="B19" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="207"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="156" t="s">
         <v>36</v>
       </c>
@@ -7577,11 +7577,11 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="137"/>
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="135" t="s">
         <v>38</v>
       </c>
@@ -7603,11 +7603,11 @@
     </row>
     <row r="21" spans="1:18" ht="54">
       <c r="A21" s="137"/>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="227"/>
       <c r="E21" s="134">
         <v>42594</v>
       </c>
@@ -7652,6 +7652,20 @@
     <row r="52" s="127" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -7660,20 +7674,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983060:WVZ983060 JA20:JN20 SW20:TJ20 ACS20:ADF20 AMO20:ANB20 AWK20:AWX20 BGG20:BGT20 BQC20:BQP20 BZY20:CAL20 CJU20:CKH20 CTQ20:CUD20 DDM20:DDZ20 DNI20:DNV20 DXE20:DXR20 EHA20:EHN20 EQW20:ERJ20 FAS20:FBF20 FKO20:FLB20 FUK20:FUX20 GEG20:GET20 GOC20:GOP20 GXY20:GYL20 HHU20:HIH20 HRQ20:HSD20 IBM20:IBZ20 ILI20:ILV20 IVE20:IVR20 JFA20:JFN20 JOW20:JPJ20 JYS20:JZF20 KIO20:KJB20 KSK20:KSX20 LCG20:LCT20 LMC20:LMP20 LVY20:LWL20 MFU20:MGH20 MPQ20:MQD20 MZM20:MZZ20 NJI20:NJV20 NTE20:NTR20 ODA20:ODN20 OMW20:ONJ20 OWS20:OXF20 PGO20:PHB20 PQK20:PQX20 QAG20:QAT20 QKC20:QKP20 QTY20:QUL20 RDU20:REH20 RNQ20:ROD20 RXM20:RXZ20 SHI20:SHV20 SRE20:SRR20 TBA20:TBN20 TKW20:TLJ20 TUS20:TVF20 UEO20:UFB20 UOK20:UOX20 UYG20:UYT20 VIC20:VIP20 VRY20:VSL20 WBU20:WCH20 WLQ20:WMD20 WVM20:WVZ20 E65556:R65556 JA65556:JN65556 SW65556:TJ65556 ACS65556:ADF65556 AMO65556:ANB65556 AWK65556:AWX65556 BGG65556:BGT65556 BQC65556:BQP65556 BZY65556:CAL65556 CJU65556:CKH65556 CTQ65556:CUD65556 DDM65556:DDZ65556 DNI65556:DNV65556 DXE65556:DXR65556 EHA65556:EHN65556 EQW65556:ERJ65556 FAS65556:FBF65556 FKO65556:FLB65556 FUK65556:FUX65556 GEG65556:GET65556 GOC65556:GOP65556 GXY65556:GYL65556 HHU65556:HIH65556 HRQ65556:HSD65556 IBM65556:IBZ65556 ILI65556:ILV65556 IVE65556:IVR65556 JFA65556:JFN65556 JOW65556:JPJ65556 JYS65556:JZF65556 KIO65556:KJB65556 KSK65556:KSX65556 LCG65556:LCT65556 LMC65556:LMP65556 LVY65556:LWL65556 MFU65556:MGH65556 MPQ65556:MQD65556 MZM65556:MZZ65556 NJI65556:NJV65556 NTE65556:NTR65556 ODA65556:ODN65556 OMW65556:ONJ65556 OWS65556:OXF65556 PGO65556:PHB65556 PQK65556:PQX65556 QAG65556:QAT65556 QKC65556:QKP65556 QTY65556:QUL65556 RDU65556:REH65556 RNQ65556:ROD65556 RXM65556:RXZ65556 SHI65556:SHV65556 SRE65556:SRR65556 TBA65556:TBN65556 TKW65556:TLJ65556 TUS65556:TVF65556 UEO65556:UFB65556 UOK65556:UOX65556 UYG65556:UYT65556 VIC65556:VIP65556 VRY65556:VSL65556 WBU65556:WCH65556 WLQ65556:WMD65556 WVM65556:WVZ65556 E131092:R131092 JA131092:JN131092 SW131092:TJ131092 ACS131092:ADF131092 AMO131092:ANB131092 AWK131092:AWX131092 BGG131092:BGT131092 BQC131092:BQP131092 BZY131092:CAL131092 CJU131092:CKH131092 CTQ131092:CUD131092 DDM131092:DDZ131092 DNI131092:DNV131092 DXE131092:DXR131092 EHA131092:EHN131092 EQW131092:ERJ131092 FAS131092:FBF131092 FKO131092:FLB131092 FUK131092:FUX131092 GEG131092:GET131092 GOC131092:GOP131092 GXY131092:GYL131092 HHU131092:HIH131092 HRQ131092:HSD131092 IBM131092:IBZ131092 ILI131092:ILV131092 IVE131092:IVR131092 JFA131092:JFN131092 JOW131092:JPJ131092 JYS131092:JZF131092 KIO131092:KJB131092 KSK131092:KSX131092 LCG131092:LCT131092 LMC131092:LMP131092 LVY131092:LWL131092 MFU131092:MGH131092 MPQ131092:MQD131092 MZM131092:MZZ131092 NJI131092:NJV131092 NTE131092:NTR131092 ODA131092:ODN131092 OMW131092:ONJ131092 OWS131092:OXF131092 PGO131092:PHB131092 PQK131092:PQX131092 QAG131092:QAT131092 QKC131092:QKP131092 QTY131092:QUL131092 RDU131092:REH131092 RNQ131092:ROD131092 RXM131092:RXZ131092 SHI131092:SHV131092 SRE131092:SRR131092 TBA131092:TBN131092 TKW131092:TLJ131092 TUS131092:TVF131092 UEO131092:UFB131092 UOK131092:UOX131092 UYG131092:UYT131092 VIC131092:VIP131092 VRY131092:VSL131092 WBU131092:WCH131092 WLQ131092:WMD131092 WVM131092:WVZ131092 E196628:R196628 JA196628:JN196628 SW196628:TJ196628 ACS196628:ADF196628 AMO196628:ANB196628 AWK196628:AWX196628 BGG196628:BGT196628 BQC196628:BQP196628 BZY196628:CAL196628 CJU196628:CKH196628 CTQ196628:CUD196628 DDM196628:DDZ196628 DNI196628:DNV196628 DXE196628:DXR196628 EHA196628:EHN196628 EQW196628:ERJ196628 FAS196628:FBF196628 FKO196628:FLB196628 FUK196628:FUX196628 GEG196628:GET196628 GOC196628:GOP196628 GXY196628:GYL196628 HHU196628:HIH196628 HRQ196628:HSD196628 IBM196628:IBZ196628 ILI196628:ILV196628 IVE196628:IVR196628 JFA196628:JFN196628 JOW196628:JPJ196628 JYS196628:JZF196628 KIO196628:KJB196628 KSK196628:KSX196628 LCG196628:LCT196628 LMC196628:LMP196628 LVY196628:LWL196628 MFU196628:MGH196628 MPQ196628:MQD196628 MZM196628:MZZ196628 NJI196628:NJV196628 NTE196628:NTR196628 ODA196628:ODN196628 OMW196628:ONJ196628 OWS196628:OXF196628 PGO196628:PHB196628 PQK196628:PQX196628 QAG196628:QAT196628 QKC196628:QKP196628 QTY196628:QUL196628 RDU196628:REH196628 RNQ196628:ROD196628 RXM196628:RXZ196628 SHI196628:SHV196628 SRE196628:SRR196628 TBA196628:TBN196628 TKW196628:TLJ196628 TUS196628:TVF196628 UEO196628:UFB196628 UOK196628:UOX196628 UYG196628:UYT196628 VIC196628:VIP196628 VRY196628:VSL196628 WBU196628:WCH196628 WLQ196628:WMD196628 WVM196628:WVZ196628 E262164:R262164 JA262164:JN262164 SW262164:TJ262164 ACS262164:ADF262164 AMO262164:ANB262164 AWK262164:AWX262164 BGG262164:BGT262164 BQC262164:BQP262164 BZY262164:CAL262164 CJU262164:CKH262164 CTQ262164:CUD262164 DDM262164:DDZ262164 DNI262164:DNV262164 DXE262164:DXR262164 EHA262164:EHN262164 EQW262164:ERJ262164 FAS262164:FBF262164 FKO262164:FLB262164 FUK262164:FUX262164 GEG262164:GET262164 GOC262164:GOP262164 GXY262164:GYL262164 HHU262164:HIH262164 HRQ262164:HSD262164 IBM262164:IBZ262164 ILI262164:ILV262164 IVE262164:IVR262164 JFA262164:JFN262164 JOW262164:JPJ262164 JYS262164:JZF262164 KIO262164:KJB262164 KSK262164:KSX262164 LCG262164:LCT262164 LMC262164:LMP262164 LVY262164:LWL262164 MFU262164:MGH262164 MPQ262164:MQD262164 MZM262164:MZZ262164 NJI262164:NJV262164 NTE262164:NTR262164 ODA262164:ODN262164 OMW262164:ONJ262164 OWS262164:OXF262164 PGO262164:PHB262164 PQK262164:PQX262164 QAG262164:QAT262164 QKC262164:QKP262164 QTY262164:QUL262164 RDU262164:REH262164 RNQ262164:ROD262164 RXM262164:RXZ262164 SHI262164:SHV262164 SRE262164:SRR262164 TBA262164:TBN262164 TKW262164:TLJ262164 TUS262164:TVF262164 UEO262164:UFB262164 UOK262164:UOX262164 UYG262164:UYT262164 VIC262164:VIP262164 VRY262164:VSL262164 WBU262164:WCH262164 WLQ262164:WMD262164 WVM262164:WVZ262164 E327700:R327700 JA327700:JN327700 SW327700:TJ327700 ACS327700:ADF327700 AMO327700:ANB327700 AWK327700:AWX327700 BGG327700:BGT327700 BQC327700:BQP327700 BZY327700:CAL327700 CJU327700:CKH327700 CTQ327700:CUD327700 DDM327700:DDZ327700 DNI327700:DNV327700 DXE327700:DXR327700 EHA327700:EHN327700 EQW327700:ERJ327700 FAS327700:FBF327700 FKO327700:FLB327700 FUK327700:FUX327700 GEG327700:GET327700 GOC327700:GOP327700 GXY327700:GYL327700 HHU327700:HIH327700 HRQ327700:HSD327700 IBM327700:IBZ327700 ILI327700:ILV327700 IVE327700:IVR327700 JFA327700:JFN327700 JOW327700:JPJ327700 JYS327700:JZF327700 KIO327700:KJB327700 KSK327700:KSX327700 LCG327700:LCT327700 LMC327700:LMP327700 LVY327700:LWL327700 MFU327700:MGH327700 MPQ327700:MQD327700 MZM327700:MZZ327700 NJI327700:NJV327700 NTE327700:NTR327700 ODA327700:ODN327700 OMW327700:ONJ327700 OWS327700:OXF327700 PGO327700:PHB327700 PQK327700:PQX327700 QAG327700:QAT327700 QKC327700:QKP327700 QTY327700:QUL327700 RDU327700:REH327700 RNQ327700:ROD327700 RXM327700:RXZ327700 SHI327700:SHV327700 SRE327700:SRR327700 TBA327700:TBN327700 TKW327700:TLJ327700 TUS327700:TVF327700 UEO327700:UFB327700 UOK327700:UOX327700 UYG327700:UYT327700 VIC327700:VIP327700 VRY327700:VSL327700 WBU327700:WCH327700 WLQ327700:WMD327700 WVM327700:WVZ327700 E393236:R393236 JA393236:JN393236 SW393236:TJ393236 ACS393236:ADF393236 AMO393236:ANB393236 AWK393236:AWX393236 BGG393236:BGT393236 BQC393236:BQP393236 BZY393236:CAL393236 CJU393236:CKH393236 CTQ393236:CUD393236 DDM393236:DDZ393236 DNI393236:DNV393236 DXE393236:DXR393236 EHA393236:EHN393236 EQW393236:ERJ393236 FAS393236:FBF393236 FKO393236:FLB393236 FUK393236:FUX393236 GEG393236:GET393236 GOC393236:GOP393236 GXY393236:GYL393236 HHU393236:HIH393236 HRQ393236:HSD393236 IBM393236:IBZ393236 ILI393236:ILV393236 IVE393236:IVR393236 JFA393236:JFN393236 JOW393236:JPJ393236 JYS393236:JZF393236 KIO393236:KJB393236 KSK393236:KSX393236 LCG393236:LCT393236 LMC393236:LMP393236 LVY393236:LWL393236 MFU393236:MGH393236 MPQ393236:MQD393236 MZM393236:MZZ393236 NJI393236:NJV393236 NTE393236:NTR393236 ODA393236:ODN393236 OMW393236:ONJ393236 OWS393236:OXF393236 PGO393236:PHB393236 PQK393236:PQX393236 QAG393236:QAT393236 QKC393236:QKP393236 QTY393236:QUL393236 RDU393236:REH393236 RNQ393236:ROD393236 RXM393236:RXZ393236 SHI393236:SHV393236 SRE393236:SRR393236 TBA393236:TBN393236 TKW393236:TLJ393236 TUS393236:TVF393236 UEO393236:UFB393236 UOK393236:UOX393236 UYG393236:UYT393236 VIC393236:VIP393236 VRY393236:VSL393236 WBU393236:WCH393236 WLQ393236:WMD393236 WVM393236:WVZ393236 E458772:R458772 JA458772:JN458772 SW458772:TJ458772 ACS458772:ADF458772 AMO458772:ANB458772 AWK458772:AWX458772 BGG458772:BGT458772 BQC458772:BQP458772 BZY458772:CAL458772 CJU458772:CKH458772 CTQ458772:CUD458772 DDM458772:DDZ458772 DNI458772:DNV458772 DXE458772:DXR458772 EHA458772:EHN458772 EQW458772:ERJ458772 FAS458772:FBF458772 FKO458772:FLB458772 FUK458772:FUX458772 GEG458772:GET458772 GOC458772:GOP458772 GXY458772:GYL458772 HHU458772:HIH458772 HRQ458772:HSD458772 IBM458772:IBZ458772 ILI458772:ILV458772 IVE458772:IVR458772 JFA458772:JFN458772 JOW458772:JPJ458772 JYS458772:JZF458772 KIO458772:KJB458772 KSK458772:KSX458772 LCG458772:LCT458772 LMC458772:LMP458772 LVY458772:LWL458772 MFU458772:MGH458772 MPQ458772:MQD458772 MZM458772:MZZ458772 NJI458772:NJV458772 NTE458772:NTR458772 ODA458772:ODN458772 OMW458772:ONJ458772 OWS458772:OXF458772 PGO458772:PHB458772 PQK458772:PQX458772 QAG458772:QAT458772 QKC458772:QKP458772 QTY458772:QUL458772 RDU458772:REH458772 RNQ458772:ROD458772 RXM458772:RXZ458772 SHI458772:SHV458772 SRE458772:SRR458772 TBA458772:TBN458772 TKW458772:TLJ458772 TUS458772:TVF458772 UEO458772:UFB458772 UOK458772:UOX458772 UYG458772:UYT458772 VIC458772:VIP458772 VRY458772:VSL458772 WBU458772:WCH458772 WLQ458772:WMD458772 WVM458772:WVZ458772 E524308:R524308 JA524308:JN524308 SW524308:TJ524308 ACS524308:ADF524308 AMO524308:ANB524308 AWK524308:AWX524308 BGG524308:BGT524308 BQC524308:BQP524308 BZY524308:CAL524308 CJU524308:CKH524308 CTQ524308:CUD524308 DDM524308:DDZ524308 DNI524308:DNV524308 DXE524308:DXR524308 EHA524308:EHN524308 EQW524308:ERJ524308 FAS524308:FBF524308 FKO524308:FLB524308 FUK524308:FUX524308 GEG524308:GET524308 GOC524308:GOP524308 GXY524308:GYL524308 HHU524308:HIH524308 HRQ524308:HSD524308 IBM524308:IBZ524308 ILI524308:ILV524308 IVE524308:IVR524308 JFA524308:JFN524308 JOW524308:JPJ524308 JYS524308:JZF524308 KIO524308:KJB524308 KSK524308:KSX524308 LCG524308:LCT524308 LMC524308:LMP524308 LVY524308:LWL524308 MFU524308:MGH524308 MPQ524308:MQD524308 MZM524308:MZZ524308 NJI524308:NJV524308 NTE524308:NTR524308 ODA524308:ODN524308 OMW524308:ONJ524308 OWS524308:OXF524308 PGO524308:PHB524308 PQK524308:PQX524308 QAG524308:QAT524308 QKC524308:QKP524308 QTY524308:QUL524308 RDU524308:REH524308 RNQ524308:ROD524308 RXM524308:RXZ524308 SHI524308:SHV524308 SRE524308:SRR524308 TBA524308:TBN524308 TKW524308:TLJ524308 TUS524308:TVF524308 UEO524308:UFB524308 UOK524308:UOX524308 UYG524308:UYT524308 VIC524308:VIP524308 VRY524308:VSL524308 WBU524308:WCH524308 WLQ524308:WMD524308 WVM524308:WVZ524308 E589844:R589844 JA589844:JN589844 SW589844:TJ589844 ACS589844:ADF589844 AMO589844:ANB589844 AWK589844:AWX589844 BGG589844:BGT589844 BQC589844:BQP589844 BZY589844:CAL589844 CJU589844:CKH589844 CTQ589844:CUD589844 DDM589844:DDZ589844 DNI589844:DNV589844 DXE589844:DXR589844 EHA589844:EHN589844 EQW589844:ERJ589844 FAS589844:FBF589844 FKO589844:FLB589844 FUK589844:FUX589844 GEG589844:GET589844 GOC589844:GOP589844 GXY589844:GYL589844 HHU589844:HIH589844 HRQ589844:HSD589844 IBM589844:IBZ589844 ILI589844:ILV589844 IVE589844:IVR589844 JFA589844:JFN589844 JOW589844:JPJ589844 JYS589844:JZF589844 KIO589844:KJB589844 KSK589844:KSX589844 LCG589844:LCT589844 LMC589844:LMP589844 LVY589844:LWL589844 MFU589844:MGH589844 MPQ589844:MQD589844 MZM589844:MZZ589844 NJI589844:NJV589844 NTE589844:NTR589844 ODA589844:ODN589844 OMW589844:ONJ589844 OWS589844:OXF589844 PGO589844:PHB589844 PQK589844:PQX589844 QAG589844:QAT589844 QKC589844:QKP589844 QTY589844:QUL589844 RDU589844:REH589844 RNQ589844:ROD589844 RXM589844:RXZ589844 SHI589844:SHV589844 SRE589844:SRR589844 TBA589844:TBN589844 TKW589844:TLJ589844 TUS589844:TVF589844 UEO589844:UFB589844 UOK589844:UOX589844 UYG589844:UYT589844 VIC589844:VIP589844 VRY589844:VSL589844 WBU589844:WCH589844 WLQ589844:WMD589844 WVM589844:WVZ589844 E655380:R655380 JA655380:JN655380 SW655380:TJ655380 ACS655380:ADF655380 AMO655380:ANB655380 AWK655380:AWX655380 BGG655380:BGT655380 BQC655380:BQP655380 BZY655380:CAL655380 CJU655380:CKH655380 CTQ655380:CUD655380 DDM655380:DDZ655380 DNI655380:DNV655380 DXE655380:DXR655380 EHA655380:EHN655380 EQW655380:ERJ655380 FAS655380:FBF655380 FKO655380:FLB655380 FUK655380:FUX655380 GEG655380:GET655380 GOC655380:GOP655380 GXY655380:GYL655380 HHU655380:HIH655380 HRQ655380:HSD655380 IBM655380:IBZ655380 ILI655380:ILV655380 IVE655380:IVR655380 JFA655380:JFN655380 JOW655380:JPJ655380 JYS655380:JZF655380 KIO655380:KJB655380 KSK655380:KSX655380 LCG655380:LCT655380 LMC655380:LMP655380 LVY655380:LWL655380 MFU655380:MGH655380 MPQ655380:MQD655380 MZM655380:MZZ655380 NJI655380:NJV655380 NTE655380:NTR655380 ODA655380:ODN655380 OMW655380:ONJ655380 OWS655380:OXF655380 PGO655380:PHB655380 PQK655380:PQX655380 QAG655380:QAT655380 QKC655380:QKP655380 QTY655380:QUL655380 RDU655380:REH655380 RNQ655380:ROD655380 RXM655380:RXZ655380 SHI655380:SHV655380 SRE655380:SRR655380 TBA655380:TBN655380 TKW655380:TLJ655380 TUS655380:TVF655380 UEO655380:UFB655380 UOK655380:UOX655380 UYG655380:UYT655380 VIC655380:VIP655380 VRY655380:VSL655380 WBU655380:WCH655380 WLQ655380:WMD655380 WVM655380:WVZ655380 E720916:R720916 JA720916:JN720916 SW720916:TJ720916 ACS720916:ADF720916 AMO720916:ANB720916 AWK720916:AWX720916 BGG720916:BGT720916 BQC720916:BQP720916 BZY720916:CAL720916 CJU720916:CKH720916 CTQ720916:CUD720916 DDM720916:DDZ720916 DNI720916:DNV720916 DXE720916:DXR720916 EHA720916:EHN720916 EQW720916:ERJ720916 FAS720916:FBF720916 FKO720916:FLB720916 FUK720916:FUX720916 GEG720916:GET720916 GOC720916:GOP720916 GXY720916:GYL720916 HHU720916:HIH720916 HRQ720916:HSD720916 IBM720916:IBZ720916 ILI720916:ILV720916 IVE720916:IVR720916 JFA720916:JFN720916 JOW720916:JPJ720916 JYS720916:JZF720916 KIO720916:KJB720916 KSK720916:KSX720916 LCG720916:LCT720916 LMC720916:LMP720916 LVY720916:LWL720916 MFU720916:MGH720916 MPQ720916:MQD720916 MZM720916:MZZ720916 NJI720916:NJV720916 NTE720916:NTR720916 ODA720916:ODN720916 OMW720916:ONJ720916 OWS720916:OXF720916 PGO720916:PHB720916 PQK720916:PQX720916 QAG720916:QAT720916 QKC720916:QKP720916 QTY720916:QUL720916 RDU720916:REH720916 RNQ720916:ROD720916 RXM720916:RXZ720916 SHI720916:SHV720916 SRE720916:SRR720916 TBA720916:TBN720916 TKW720916:TLJ720916 TUS720916:TVF720916 UEO720916:UFB720916 UOK720916:UOX720916 UYG720916:UYT720916 VIC720916:VIP720916 VRY720916:VSL720916 WBU720916:WCH720916 WLQ720916:WMD720916 WVM720916:WVZ720916 E786452:R786452 JA786452:JN786452 SW786452:TJ786452 ACS786452:ADF786452 AMO786452:ANB786452 AWK786452:AWX786452 BGG786452:BGT786452 BQC786452:BQP786452 BZY786452:CAL786452 CJU786452:CKH786452 CTQ786452:CUD786452 DDM786452:DDZ786452 DNI786452:DNV786452 DXE786452:DXR786452 EHA786452:EHN786452 EQW786452:ERJ786452 FAS786452:FBF786452 FKO786452:FLB786452 FUK786452:FUX786452 GEG786452:GET786452 GOC786452:GOP786452 GXY786452:GYL786452 HHU786452:HIH786452 HRQ786452:HSD786452 IBM786452:IBZ786452 ILI786452:ILV786452 IVE786452:IVR786452 JFA786452:JFN786452 JOW786452:JPJ786452 JYS786452:JZF786452 KIO786452:KJB786452 KSK786452:KSX786452 LCG786452:LCT786452 LMC786452:LMP786452 LVY786452:LWL786452 MFU786452:MGH786452 MPQ786452:MQD786452 MZM786452:MZZ786452 NJI786452:NJV786452 NTE786452:NTR786452 ODA786452:ODN786452 OMW786452:ONJ786452 OWS786452:OXF786452 PGO786452:PHB786452 PQK786452:PQX786452 QAG786452:QAT786452 QKC786452:QKP786452 QTY786452:QUL786452 RDU786452:REH786452 RNQ786452:ROD786452 RXM786452:RXZ786452 SHI786452:SHV786452 SRE786452:SRR786452 TBA786452:TBN786452 TKW786452:TLJ786452 TUS786452:TVF786452 UEO786452:UFB786452 UOK786452:UOX786452 UYG786452:UYT786452 VIC786452:VIP786452 VRY786452:VSL786452 WBU786452:WCH786452 WLQ786452:WMD786452 WVM786452:WVZ786452 E851988:R851988 JA851988:JN851988 SW851988:TJ851988 ACS851988:ADF851988 AMO851988:ANB851988 AWK851988:AWX851988 BGG851988:BGT851988 BQC851988:BQP851988 BZY851988:CAL851988 CJU851988:CKH851988 CTQ851988:CUD851988 DDM851988:DDZ851988 DNI851988:DNV851988 DXE851988:DXR851988 EHA851988:EHN851988 EQW851988:ERJ851988 FAS851988:FBF851988 FKO851988:FLB851988 FUK851988:FUX851988 GEG851988:GET851988 GOC851988:GOP851988 GXY851988:GYL851988 HHU851988:HIH851988 HRQ851988:HSD851988 IBM851988:IBZ851988 ILI851988:ILV851988 IVE851988:IVR851988 JFA851988:JFN851988 JOW851988:JPJ851988 JYS851988:JZF851988 KIO851988:KJB851988 KSK851988:KSX851988 LCG851988:LCT851988 LMC851988:LMP851988 LVY851988:LWL851988 MFU851988:MGH851988 MPQ851988:MQD851988 MZM851988:MZZ851988 NJI851988:NJV851988 NTE851988:NTR851988 ODA851988:ODN851988 OMW851988:ONJ851988 OWS851988:OXF851988 PGO851988:PHB851988 PQK851988:PQX851988 QAG851988:QAT851988 QKC851988:QKP851988 QTY851988:QUL851988 RDU851988:REH851988 RNQ851988:ROD851988 RXM851988:RXZ851988 SHI851988:SHV851988 SRE851988:SRR851988 TBA851988:TBN851988 TKW851988:TLJ851988 TUS851988:TVF851988 UEO851988:UFB851988 UOK851988:UOX851988 UYG851988:UYT851988 VIC851988:VIP851988 VRY851988:VSL851988 WBU851988:WCH851988 WLQ851988:WMD851988 WVM851988:WVZ851988 E917524:R917524 JA917524:JN917524 SW917524:TJ917524 ACS917524:ADF917524 AMO917524:ANB917524 AWK917524:AWX917524 BGG917524:BGT917524 BQC917524:BQP917524 BZY917524:CAL917524 CJU917524:CKH917524 CTQ917524:CUD917524 DDM917524:DDZ917524 DNI917524:DNV917524 DXE917524:DXR917524 EHA917524:EHN917524 EQW917524:ERJ917524 FAS917524:FBF917524 FKO917524:FLB917524 FUK917524:FUX917524 GEG917524:GET917524 GOC917524:GOP917524 GXY917524:GYL917524 HHU917524:HIH917524 HRQ917524:HSD917524 IBM917524:IBZ917524 ILI917524:ILV917524 IVE917524:IVR917524 JFA917524:JFN917524 JOW917524:JPJ917524 JYS917524:JZF917524 KIO917524:KJB917524 KSK917524:KSX917524 LCG917524:LCT917524 LMC917524:LMP917524 LVY917524:LWL917524 MFU917524:MGH917524 MPQ917524:MQD917524 MZM917524:MZZ917524 NJI917524:NJV917524 NTE917524:NTR917524 ODA917524:ODN917524 OMW917524:ONJ917524 OWS917524:OXF917524 PGO917524:PHB917524 PQK917524:PQX917524 QAG917524:QAT917524 QKC917524:QKP917524 QTY917524:QUL917524 RDU917524:REH917524 RNQ917524:ROD917524 RXM917524:RXZ917524 SHI917524:SHV917524 SRE917524:SRR917524 TBA917524:TBN917524 TKW917524:TLJ917524 TUS917524:TVF917524 UEO917524:UFB917524 UOK917524:UOX917524 UYG917524:UYT917524 VIC917524:VIP917524 VRY917524:VSL917524 WBU917524:WCH917524 WLQ917524:WMD917524 WVM917524:WVZ917524 E983060:R983060 JA983060:JN983060 SW983060:TJ983060 ACS983060:ADF983060 AMO983060:ANB983060 AWK983060:AWX983060 BGG983060:BGT983060 BQC983060:BQP983060 BZY983060:CAL983060 CJU983060:CKH983060 CTQ983060:CUD983060 DDM983060:DDZ983060 DNI983060:DNV983060 DXE983060:DXR983060 EHA983060:EHN983060 EQW983060:ERJ983060 FAS983060:FBF983060 FKO983060:FLB983060 FUK983060:FUX983060 GEG983060:GET983060 GOC983060:GOP983060 GXY983060:GYL983060 HHU983060:HIH983060 HRQ983060:HSD983060 IBM983060:IBZ983060 ILI983060:ILV983060 IVE983060:IVR983060 JFA983060:JFN983060 JOW983060:JPJ983060 JYS983060:JZF983060 KIO983060:KJB983060 KSK983060:KSX983060 LCG983060:LCT983060 LMC983060:LMP983060 LVY983060:LWL983060 MFU983060:MGH983060 MPQ983060:MQD983060 MZM983060:MZZ983060 NJI983060:NJV983060 NTE983060:NTR983060 ODA983060:ODN983060 OMW983060:ONJ983060 OWS983060:OXF983060 PGO983060:PHB983060 PQK983060:PQX983060 QAG983060:QAT983060 QKC983060:QKP983060 QTY983060:QUL983060 RDU983060:REH983060 RNQ983060:ROD983060 RXM983060:RXZ983060 SHI983060:SHV983060 SRE983060:SRR983060 TBA983060:TBN983060 TKW983060:TLJ983060 TUS983060:TVF983060 UEO983060:UFB983060 UOK983060:UOX983060 UYG983060:UYT983060 VIC983060:VIP983060 VRY983060:VSL983060 WBU983060:WCH983060 WLQ983060:WMD983060 E20:R20">
@@ -7704,7 +7704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
@@ -8229,136 +8229,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>DeleteOrganization</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E20:HM20,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E20:HO20,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E19:HM19,"N")</f>
         <v>0</v>
@@ -8371,16 +8371,16 @@
         <f>COUNTIF(E19:HM19,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -8414,7 +8414,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="142"/>
@@ -8440,7 +8440,7 @@
     <row r="10" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="136"/>
       <c r="B10" s="140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="141"/>
       <c r="D10" s="142"/>
@@ -8468,7 +8468,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="167"/>
       <c r="D11" s="142"/>
@@ -8606,7 +8606,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="137"/>
       <c r="B17" s="131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="132"/>
       <c r="D17" s="133"/>
@@ -8677,11 +8677,11 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="137"/>
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="135" t="s">
         <v>38</v>
       </c>
@@ -8703,11 +8703,11 @@
     </row>
     <row r="21" spans="1:18" ht="54">
       <c r="A21" s="137"/>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="227"/>
       <c r="E21" s="134">
         <v>42594</v>
       </c>
@@ -8836,20 +8836,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -8858,6 +8844,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:K10 JA9:JC10 SW9:SY10 ACS9:ACU10 AMO9:AMQ10 AWK9:AWM10 BGG9:BGI10 BQC9:BQE10 BZY9:CAA10 CJU9:CJW10 CTQ9:CTS10 DDM9:DDO10 DNI9:DNK10 DXE9:DXG10 EHA9:EHC10 EQW9:EQY10 FAS9:FAU10 FKO9:FKQ10 FUK9:FUM10 GEG9:GEI10 GOC9:GOE10 GXY9:GYA10 HHU9:HHW10 HRQ9:HRS10 IBM9:IBO10 ILI9:ILK10 IVE9:IVG10 JFA9:JFC10 JOW9:JOY10 JYS9:JYU10 KIO9:KIQ10 KSK9:KSM10 LCG9:LCI10 LMC9:LME10 LVY9:LWA10 MFU9:MFW10 MPQ9:MPS10 MZM9:MZO10 NJI9:NJK10 NTE9:NTG10 ODA9:ODC10 OMW9:OMY10 OWS9:OWU10 PGO9:PGQ10 PQK9:PQM10 QAG9:QAI10 QKC9:QKE10 QTY9:QUA10 RDU9:RDW10 RNQ9:RNS10 RXM9:RXO10 SHI9:SHK10 SRE9:SRG10 TBA9:TBC10 TKW9:TKY10 TUS9:TUU10 UEO9:UEQ10 UOK9:UOM10 UYG9:UYI10 VIC9:VIE10 VRY9:VSA10 WBU9:WBW10 WLQ9:WLS10 WVM9:WVO10 E65543:G65544 JA65543:JC65544 SW65543:SY65544 ACS65543:ACU65544 AMO65543:AMQ65544 AWK65543:AWM65544 BGG65543:BGI65544 BQC65543:BQE65544 BZY65543:CAA65544 CJU65543:CJW65544 CTQ65543:CTS65544 DDM65543:DDO65544 DNI65543:DNK65544 DXE65543:DXG65544 EHA65543:EHC65544 EQW65543:EQY65544 FAS65543:FAU65544 FKO65543:FKQ65544 FUK65543:FUM65544 GEG65543:GEI65544 GOC65543:GOE65544 GXY65543:GYA65544 HHU65543:HHW65544 HRQ65543:HRS65544 IBM65543:IBO65544 ILI65543:ILK65544 IVE65543:IVG65544 JFA65543:JFC65544 JOW65543:JOY65544 JYS65543:JYU65544 KIO65543:KIQ65544 KSK65543:KSM65544 LCG65543:LCI65544 LMC65543:LME65544 LVY65543:LWA65544 MFU65543:MFW65544 MPQ65543:MPS65544 MZM65543:MZO65544 NJI65543:NJK65544 NTE65543:NTG65544 ODA65543:ODC65544 OMW65543:OMY65544 OWS65543:OWU65544 PGO65543:PGQ65544 PQK65543:PQM65544 QAG65543:QAI65544 QKC65543:QKE65544 QTY65543:QUA65544 RDU65543:RDW65544 RNQ65543:RNS65544 RXM65543:RXO65544 SHI65543:SHK65544 SRE65543:SRG65544 TBA65543:TBC65544 TKW65543:TKY65544 TUS65543:TUU65544 UEO65543:UEQ65544 UOK65543:UOM65544 UYG65543:UYI65544 VIC65543:VIE65544 VRY65543:VSA65544 WBU65543:WBW65544 WLQ65543:WLS65544 WVM65543:WVO65544 E131079:G131080 JA131079:JC131080 SW131079:SY131080 ACS131079:ACU131080 AMO131079:AMQ131080 AWK131079:AWM131080 BGG131079:BGI131080 BQC131079:BQE131080 BZY131079:CAA131080 CJU131079:CJW131080 CTQ131079:CTS131080 DDM131079:DDO131080 DNI131079:DNK131080 DXE131079:DXG131080 EHA131079:EHC131080 EQW131079:EQY131080 FAS131079:FAU131080 FKO131079:FKQ131080 FUK131079:FUM131080 GEG131079:GEI131080 GOC131079:GOE131080 GXY131079:GYA131080 HHU131079:HHW131080 HRQ131079:HRS131080 IBM131079:IBO131080 ILI131079:ILK131080 IVE131079:IVG131080 JFA131079:JFC131080 JOW131079:JOY131080 JYS131079:JYU131080 KIO131079:KIQ131080 KSK131079:KSM131080 LCG131079:LCI131080 LMC131079:LME131080 LVY131079:LWA131080 MFU131079:MFW131080 MPQ131079:MPS131080 MZM131079:MZO131080 NJI131079:NJK131080 NTE131079:NTG131080 ODA131079:ODC131080 OMW131079:OMY131080 OWS131079:OWU131080 PGO131079:PGQ131080 PQK131079:PQM131080 QAG131079:QAI131080 QKC131079:QKE131080 QTY131079:QUA131080 RDU131079:RDW131080 RNQ131079:RNS131080 RXM131079:RXO131080 SHI131079:SHK131080 SRE131079:SRG131080 TBA131079:TBC131080 TKW131079:TKY131080 TUS131079:TUU131080 UEO131079:UEQ131080 UOK131079:UOM131080 UYG131079:UYI131080 VIC131079:VIE131080 VRY131079:VSA131080 WBU131079:WBW131080 WLQ131079:WLS131080 WVM131079:WVO131080 E196615:G196616 JA196615:JC196616 SW196615:SY196616 ACS196615:ACU196616 AMO196615:AMQ196616 AWK196615:AWM196616 BGG196615:BGI196616 BQC196615:BQE196616 BZY196615:CAA196616 CJU196615:CJW196616 CTQ196615:CTS196616 DDM196615:DDO196616 DNI196615:DNK196616 DXE196615:DXG196616 EHA196615:EHC196616 EQW196615:EQY196616 FAS196615:FAU196616 FKO196615:FKQ196616 FUK196615:FUM196616 GEG196615:GEI196616 GOC196615:GOE196616 GXY196615:GYA196616 HHU196615:HHW196616 HRQ196615:HRS196616 IBM196615:IBO196616 ILI196615:ILK196616 IVE196615:IVG196616 JFA196615:JFC196616 JOW196615:JOY196616 JYS196615:JYU196616 KIO196615:KIQ196616 KSK196615:KSM196616 LCG196615:LCI196616 LMC196615:LME196616 LVY196615:LWA196616 MFU196615:MFW196616 MPQ196615:MPS196616 MZM196615:MZO196616 NJI196615:NJK196616 NTE196615:NTG196616 ODA196615:ODC196616 OMW196615:OMY196616 OWS196615:OWU196616 PGO196615:PGQ196616 PQK196615:PQM196616 QAG196615:QAI196616 QKC196615:QKE196616 QTY196615:QUA196616 RDU196615:RDW196616 RNQ196615:RNS196616 RXM196615:RXO196616 SHI196615:SHK196616 SRE196615:SRG196616 TBA196615:TBC196616 TKW196615:TKY196616 TUS196615:TUU196616 UEO196615:UEQ196616 UOK196615:UOM196616 UYG196615:UYI196616 VIC196615:VIE196616 VRY196615:VSA196616 WBU196615:WBW196616 WLQ196615:WLS196616 WVM196615:WVO196616 E262151:G262152 JA262151:JC262152 SW262151:SY262152 ACS262151:ACU262152 AMO262151:AMQ262152 AWK262151:AWM262152 BGG262151:BGI262152 BQC262151:BQE262152 BZY262151:CAA262152 CJU262151:CJW262152 CTQ262151:CTS262152 DDM262151:DDO262152 DNI262151:DNK262152 DXE262151:DXG262152 EHA262151:EHC262152 EQW262151:EQY262152 FAS262151:FAU262152 FKO262151:FKQ262152 FUK262151:FUM262152 GEG262151:GEI262152 GOC262151:GOE262152 GXY262151:GYA262152 HHU262151:HHW262152 HRQ262151:HRS262152 IBM262151:IBO262152 ILI262151:ILK262152 IVE262151:IVG262152 JFA262151:JFC262152 JOW262151:JOY262152 JYS262151:JYU262152 KIO262151:KIQ262152 KSK262151:KSM262152 LCG262151:LCI262152 LMC262151:LME262152 LVY262151:LWA262152 MFU262151:MFW262152 MPQ262151:MPS262152 MZM262151:MZO262152 NJI262151:NJK262152 NTE262151:NTG262152 ODA262151:ODC262152 OMW262151:OMY262152 OWS262151:OWU262152 PGO262151:PGQ262152 PQK262151:PQM262152 QAG262151:QAI262152 QKC262151:QKE262152 QTY262151:QUA262152 RDU262151:RDW262152 RNQ262151:RNS262152 RXM262151:RXO262152 SHI262151:SHK262152 SRE262151:SRG262152 TBA262151:TBC262152 TKW262151:TKY262152 TUS262151:TUU262152 UEO262151:UEQ262152 UOK262151:UOM262152 UYG262151:UYI262152 VIC262151:VIE262152 VRY262151:VSA262152 WBU262151:WBW262152 WLQ262151:WLS262152 WVM262151:WVO262152 E327687:G327688 JA327687:JC327688 SW327687:SY327688 ACS327687:ACU327688 AMO327687:AMQ327688 AWK327687:AWM327688 BGG327687:BGI327688 BQC327687:BQE327688 BZY327687:CAA327688 CJU327687:CJW327688 CTQ327687:CTS327688 DDM327687:DDO327688 DNI327687:DNK327688 DXE327687:DXG327688 EHA327687:EHC327688 EQW327687:EQY327688 FAS327687:FAU327688 FKO327687:FKQ327688 FUK327687:FUM327688 GEG327687:GEI327688 GOC327687:GOE327688 GXY327687:GYA327688 HHU327687:HHW327688 HRQ327687:HRS327688 IBM327687:IBO327688 ILI327687:ILK327688 IVE327687:IVG327688 JFA327687:JFC327688 JOW327687:JOY327688 JYS327687:JYU327688 KIO327687:KIQ327688 KSK327687:KSM327688 LCG327687:LCI327688 LMC327687:LME327688 LVY327687:LWA327688 MFU327687:MFW327688 MPQ327687:MPS327688 MZM327687:MZO327688 NJI327687:NJK327688 NTE327687:NTG327688 ODA327687:ODC327688 OMW327687:OMY327688 OWS327687:OWU327688 PGO327687:PGQ327688 PQK327687:PQM327688 QAG327687:QAI327688 QKC327687:QKE327688 QTY327687:QUA327688 RDU327687:RDW327688 RNQ327687:RNS327688 RXM327687:RXO327688 SHI327687:SHK327688 SRE327687:SRG327688 TBA327687:TBC327688 TKW327687:TKY327688 TUS327687:TUU327688 UEO327687:UEQ327688 UOK327687:UOM327688 UYG327687:UYI327688 VIC327687:VIE327688 VRY327687:VSA327688 WBU327687:WBW327688 WLQ327687:WLS327688 WVM327687:WVO327688 E393223:G393224 JA393223:JC393224 SW393223:SY393224 ACS393223:ACU393224 AMO393223:AMQ393224 AWK393223:AWM393224 BGG393223:BGI393224 BQC393223:BQE393224 BZY393223:CAA393224 CJU393223:CJW393224 CTQ393223:CTS393224 DDM393223:DDO393224 DNI393223:DNK393224 DXE393223:DXG393224 EHA393223:EHC393224 EQW393223:EQY393224 FAS393223:FAU393224 FKO393223:FKQ393224 FUK393223:FUM393224 GEG393223:GEI393224 GOC393223:GOE393224 GXY393223:GYA393224 HHU393223:HHW393224 HRQ393223:HRS393224 IBM393223:IBO393224 ILI393223:ILK393224 IVE393223:IVG393224 JFA393223:JFC393224 JOW393223:JOY393224 JYS393223:JYU393224 KIO393223:KIQ393224 KSK393223:KSM393224 LCG393223:LCI393224 LMC393223:LME393224 LVY393223:LWA393224 MFU393223:MFW393224 MPQ393223:MPS393224 MZM393223:MZO393224 NJI393223:NJK393224 NTE393223:NTG393224 ODA393223:ODC393224 OMW393223:OMY393224 OWS393223:OWU393224 PGO393223:PGQ393224 PQK393223:PQM393224 QAG393223:QAI393224 QKC393223:QKE393224 QTY393223:QUA393224 RDU393223:RDW393224 RNQ393223:RNS393224 RXM393223:RXO393224 SHI393223:SHK393224 SRE393223:SRG393224 TBA393223:TBC393224 TKW393223:TKY393224 TUS393223:TUU393224 UEO393223:UEQ393224 UOK393223:UOM393224 UYG393223:UYI393224 VIC393223:VIE393224 VRY393223:VSA393224 WBU393223:WBW393224 WLQ393223:WLS393224 WVM393223:WVO393224 E458759:G458760 JA458759:JC458760 SW458759:SY458760 ACS458759:ACU458760 AMO458759:AMQ458760 AWK458759:AWM458760 BGG458759:BGI458760 BQC458759:BQE458760 BZY458759:CAA458760 CJU458759:CJW458760 CTQ458759:CTS458760 DDM458759:DDO458760 DNI458759:DNK458760 DXE458759:DXG458760 EHA458759:EHC458760 EQW458759:EQY458760 FAS458759:FAU458760 FKO458759:FKQ458760 FUK458759:FUM458760 GEG458759:GEI458760 GOC458759:GOE458760 GXY458759:GYA458760 HHU458759:HHW458760 HRQ458759:HRS458760 IBM458759:IBO458760 ILI458759:ILK458760 IVE458759:IVG458760 JFA458759:JFC458760 JOW458759:JOY458760 JYS458759:JYU458760 KIO458759:KIQ458760 KSK458759:KSM458760 LCG458759:LCI458760 LMC458759:LME458760 LVY458759:LWA458760 MFU458759:MFW458760 MPQ458759:MPS458760 MZM458759:MZO458760 NJI458759:NJK458760 NTE458759:NTG458760 ODA458759:ODC458760 OMW458759:OMY458760 OWS458759:OWU458760 PGO458759:PGQ458760 PQK458759:PQM458760 QAG458759:QAI458760 QKC458759:QKE458760 QTY458759:QUA458760 RDU458759:RDW458760 RNQ458759:RNS458760 RXM458759:RXO458760 SHI458759:SHK458760 SRE458759:SRG458760 TBA458759:TBC458760 TKW458759:TKY458760 TUS458759:TUU458760 UEO458759:UEQ458760 UOK458759:UOM458760 UYG458759:UYI458760 VIC458759:VIE458760 VRY458759:VSA458760 WBU458759:WBW458760 WLQ458759:WLS458760 WVM458759:WVO458760 E524295:G524296 JA524295:JC524296 SW524295:SY524296 ACS524295:ACU524296 AMO524295:AMQ524296 AWK524295:AWM524296 BGG524295:BGI524296 BQC524295:BQE524296 BZY524295:CAA524296 CJU524295:CJW524296 CTQ524295:CTS524296 DDM524295:DDO524296 DNI524295:DNK524296 DXE524295:DXG524296 EHA524295:EHC524296 EQW524295:EQY524296 FAS524295:FAU524296 FKO524295:FKQ524296 FUK524295:FUM524296 GEG524295:GEI524296 GOC524295:GOE524296 GXY524295:GYA524296 HHU524295:HHW524296 HRQ524295:HRS524296 IBM524295:IBO524296 ILI524295:ILK524296 IVE524295:IVG524296 JFA524295:JFC524296 JOW524295:JOY524296 JYS524295:JYU524296 KIO524295:KIQ524296 KSK524295:KSM524296 LCG524295:LCI524296 LMC524295:LME524296 LVY524295:LWA524296 MFU524295:MFW524296 MPQ524295:MPS524296 MZM524295:MZO524296 NJI524295:NJK524296 NTE524295:NTG524296 ODA524295:ODC524296 OMW524295:OMY524296 OWS524295:OWU524296 PGO524295:PGQ524296 PQK524295:PQM524296 QAG524295:QAI524296 QKC524295:QKE524296 QTY524295:QUA524296 RDU524295:RDW524296 RNQ524295:RNS524296 RXM524295:RXO524296 SHI524295:SHK524296 SRE524295:SRG524296 TBA524295:TBC524296 TKW524295:TKY524296 TUS524295:TUU524296 UEO524295:UEQ524296 UOK524295:UOM524296 UYG524295:UYI524296 VIC524295:VIE524296 VRY524295:VSA524296 WBU524295:WBW524296 WLQ524295:WLS524296 WVM524295:WVO524296 E589831:G589832 JA589831:JC589832 SW589831:SY589832 ACS589831:ACU589832 AMO589831:AMQ589832 AWK589831:AWM589832 BGG589831:BGI589832 BQC589831:BQE589832 BZY589831:CAA589832 CJU589831:CJW589832 CTQ589831:CTS589832 DDM589831:DDO589832 DNI589831:DNK589832 DXE589831:DXG589832 EHA589831:EHC589832 EQW589831:EQY589832 FAS589831:FAU589832 FKO589831:FKQ589832 FUK589831:FUM589832 GEG589831:GEI589832 GOC589831:GOE589832 GXY589831:GYA589832 HHU589831:HHW589832 HRQ589831:HRS589832 IBM589831:IBO589832 ILI589831:ILK589832 IVE589831:IVG589832 JFA589831:JFC589832 JOW589831:JOY589832 JYS589831:JYU589832 KIO589831:KIQ589832 KSK589831:KSM589832 LCG589831:LCI589832 LMC589831:LME589832 LVY589831:LWA589832 MFU589831:MFW589832 MPQ589831:MPS589832 MZM589831:MZO589832 NJI589831:NJK589832 NTE589831:NTG589832 ODA589831:ODC589832 OMW589831:OMY589832 OWS589831:OWU589832 PGO589831:PGQ589832 PQK589831:PQM589832 QAG589831:QAI589832 QKC589831:QKE589832 QTY589831:QUA589832 RDU589831:RDW589832 RNQ589831:RNS589832 RXM589831:RXO589832 SHI589831:SHK589832 SRE589831:SRG589832 TBA589831:TBC589832 TKW589831:TKY589832 TUS589831:TUU589832 UEO589831:UEQ589832 UOK589831:UOM589832 UYG589831:UYI589832 VIC589831:VIE589832 VRY589831:VSA589832 WBU589831:WBW589832 WLQ589831:WLS589832 WVM589831:WVO589832 E655367:G655368 JA655367:JC655368 SW655367:SY655368 ACS655367:ACU655368 AMO655367:AMQ655368 AWK655367:AWM655368 BGG655367:BGI655368 BQC655367:BQE655368 BZY655367:CAA655368 CJU655367:CJW655368 CTQ655367:CTS655368 DDM655367:DDO655368 DNI655367:DNK655368 DXE655367:DXG655368 EHA655367:EHC655368 EQW655367:EQY655368 FAS655367:FAU655368 FKO655367:FKQ655368 FUK655367:FUM655368 GEG655367:GEI655368 GOC655367:GOE655368 GXY655367:GYA655368 HHU655367:HHW655368 HRQ655367:HRS655368 IBM655367:IBO655368 ILI655367:ILK655368 IVE655367:IVG655368 JFA655367:JFC655368 JOW655367:JOY655368 JYS655367:JYU655368 KIO655367:KIQ655368 KSK655367:KSM655368 LCG655367:LCI655368 LMC655367:LME655368 LVY655367:LWA655368 MFU655367:MFW655368 MPQ655367:MPS655368 MZM655367:MZO655368 NJI655367:NJK655368 NTE655367:NTG655368 ODA655367:ODC655368 OMW655367:OMY655368 OWS655367:OWU655368 PGO655367:PGQ655368 PQK655367:PQM655368 QAG655367:QAI655368 QKC655367:QKE655368 QTY655367:QUA655368 RDU655367:RDW655368 RNQ655367:RNS655368 RXM655367:RXO655368 SHI655367:SHK655368 SRE655367:SRG655368 TBA655367:TBC655368 TKW655367:TKY655368 TUS655367:TUU655368 UEO655367:UEQ655368 UOK655367:UOM655368 UYG655367:UYI655368 VIC655367:VIE655368 VRY655367:VSA655368 WBU655367:WBW655368 WLQ655367:WLS655368 WVM655367:WVO655368 E720903:G720904 JA720903:JC720904 SW720903:SY720904 ACS720903:ACU720904 AMO720903:AMQ720904 AWK720903:AWM720904 BGG720903:BGI720904 BQC720903:BQE720904 BZY720903:CAA720904 CJU720903:CJW720904 CTQ720903:CTS720904 DDM720903:DDO720904 DNI720903:DNK720904 DXE720903:DXG720904 EHA720903:EHC720904 EQW720903:EQY720904 FAS720903:FAU720904 FKO720903:FKQ720904 FUK720903:FUM720904 GEG720903:GEI720904 GOC720903:GOE720904 GXY720903:GYA720904 HHU720903:HHW720904 HRQ720903:HRS720904 IBM720903:IBO720904 ILI720903:ILK720904 IVE720903:IVG720904 JFA720903:JFC720904 JOW720903:JOY720904 JYS720903:JYU720904 KIO720903:KIQ720904 KSK720903:KSM720904 LCG720903:LCI720904 LMC720903:LME720904 LVY720903:LWA720904 MFU720903:MFW720904 MPQ720903:MPS720904 MZM720903:MZO720904 NJI720903:NJK720904 NTE720903:NTG720904 ODA720903:ODC720904 OMW720903:OMY720904 OWS720903:OWU720904 PGO720903:PGQ720904 PQK720903:PQM720904 QAG720903:QAI720904 QKC720903:QKE720904 QTY720903:QUA720904 RDU720903:RDW720904 RNQ720903:RNS720904 RXM720903:RXO720904 SHI720903:SHK720904 SRE720903:SRG720904 TBA720903:TBC720904 TKW720903:TKY720904 TUS720903:TUU720904 UEO720903:UEQ720904 UOK720903:UOM720904 UYG720903:UYI720904 VIC720903:VIE720904 VRY720903:VSA720904 WBU720903:WBW720904 WLQ720903:WLS720904 WVM720903:WVO720904 E786439:G786440 JA786439:JC786440 SW786439:SY786440 ACS786439:ACU786440 AMO786439:AMQ786440 AWK786439:AWM786440 BGG786439:BGI786440 BQC786439:BQE786440 BZY786439:CAA786440 CJU786439:CJW786440 CTQ786439:CTS786440 DDM786439:DDO786440 DNI786439:DNK786440 DXE786439:DXG786440 EHA786439:EHC786440 EQW786439:EQY786440 FAS786439:FAU786440 FKO786439:FKQ786440 FUK786439:FUM786440 GEG786439:GEI786440 GOC786439:GOE786440 GXY786439:GYA786440 HHU786439:HHW786440 HRQ786439:HRS786440 IBM786439:IBO786440 ILI786439:ILK786440 IVE786439:IVG786440 JFA786439:JFC786440 JOW786439:JOY786440 JYS786439:JYU786440 KIO786439:KIQ786440 KSK786439:KSM786440 LCG786439:LCI786440 LMC786439:LME786440 LVY786439:LWA786440 MFU786439:MFW786440 MPQ786439:MPS786440 MZM786439:MZO786440 NJI786439:NJK786440 NTE786439:NTG786440 ODA786439:ODC786440 OMW786439:OMY786440 OWS786439:OWU786440 PGO786439:PGQ786440 PQK786439:PQM786440 QAG786439:QAI786440 QKC786439:QKE786440 QTY786439:QUA786440 RDU786439:RDW786440 RNQ786439:RNS786440 RXM786439:RXO786440 SHI786439:SHK786440 SRE786439:SRG786440 TBA786439:TBC786440 TKW786439:TKY786440 TUS786439:TUU786440 UEO786439:UEQ786440 UOK786439:UOM786440 UYG786439:UYI786440 VIC786439:VIE786440 VRY786439:VSA786440 WBU786439:WBW786440 WLQ786439:WLS786440 WVM786439:WVO786440 E851975:G851976 JA851975:JC851976 SW851975:SY851976 ACS851975:ACU851976 AMO851975:AMQ851976 AWK851975:AWM851976 BGG851975:BGI851976 BQC851975:BQE851976 BZY851975:CAA851976 CJU851975:CJW851976 CTQ851975:CTS851976 DDM851975:DDO851976 DNI851975:DNK851976 DXE851975:DXG851976 EHA851975:EHC851976 EQW851975:EQY851976 FAS851975:FAU851976 FKO851975:FKQ851976 FUK851975:FUM851976 GEG851975:GEI851976 GOC851975:GOE851976 GXY851975:GYA851976 HHU851975:HHW851976 HRQ851975:HRS851976 IBM851975:IBO851976 ILI851975:ILK851976 IVE851975:IVG851976 JFA851975:JFC851976 JOW851975:JOY851976 JYS851975:JYU851976 KIO851975:KIQ851976 KSK851975:KSM851976 LCG851975:LCI851976 LMC851975:LME851976 LVY851975:LWA851976 MFU851975:MFW851976 MPQ851975:MPS851976 MZM851975:MZO851976 NJI851975:NJK851976 NTE851975:NTG851976 ODA851975:ODC851976 OMW851975:OMY851976 OWS851975:OWU851976 PGO851975:PGQ851976 PQK851975:PQM851976 QAG851975:QAI851976 QKC851975:QKE851976 QTY851975:QUA851976 RDU851975:RDW851976 RNQ851975:RNS851976 RXM851975:RXO851976 SHI851975:SHK851976 SRE851975:SRG851976 TBA851975:TBC851976 TKW851975:TKY851976 TUS851975:TUU851976 UEO851975:UEQ851976 UOK851975:UOM851976 UYG851975:UYI851976 VIC851975:VIE851976 VRY851975:VSA851976 WBU851975:WBW851976 WLQ851975:WLS851976 WVM851975:WVO851976 E917511:G917512 JA917511:JC917512 SW917511:SY917512 ACS917511:ACU917512 AMO917511:AMQ917512 AWK917511:AWM917512 BGG917511:BGI917512 BQC917511:BQE917512 BZY917511:CAA917512 CJU917511:CJW917512 CTQ917511:CTS917512 DDM917511:DDO917512 DNI917511:DNK917512 DXE917511:DXG917512 EHA917511:EHC917512 EQW917511:EQY917512 FAS917511:FAU917512 FKO917511:FKQ917512 FUK917511:FUM917512 GEG917511:GEI917512 GOC917511:GOE917512 GXY917511:GYA917512 HHU917511:HHW917512 HRQ917511:HRS917512 IBM917511:IBO917512 ILI917511:ILK917512 IVE917511:IVG917512 JFA917511:JFC917512 JOW917511:JOY917512 JYS917511:JYU917512 KIO917511:KIQ917512 KSK917511:KSM917512 LCG917511:LCI917512 LMC917511:LME917512 LVY917511:LWA917512 MFU917511:MFW917512 MPQ917511:MPS917512 MZM917511:MZO917512 NJI917511:NJK917512 NTE917511:NTG917512 ODA917511:ODC917512 OMW917511:OMY917512 OWS917511:OWU917512 PGO917511:PGQ917512 PQK917511:PQM917512 QAG917511:QAI917512 QKC917511:QKE917512 QTY917511:QUA917512 RDU917511:RDW917512 RNQ917511:RNS917512 RXM917511:RXO917512 SHI917511:SHK917512 SRE917511:SRG917512 TBA917511:TBC917512 TKW917511:TKY917512 TUS917511:TUU917512 UEO917511:UEQ917512 UOK917511:UOM917512 UYG917511:UYI917512 VIC917511:VIE917512 VRY917511:VSA917512 WBU917511:WBW917512 WLQ917511:WLS917512 WVM917511:WVO917512 E983047:G983048 JA983047:JC983048 SW983047:SY983048 ACS983047:ACU983048 AMO983047:AMQ983048 AWK983047:AWM983048 BGG983047:BGI983048 BQC983047:BQE983048 BZY983047:CAA983048 CJU983047:CJW983048 CTQ983047:CTS983048 DDM983047:DDO983048 DNI983047:DNK983048 DXE983047:DXG983048 EHA983047:EHC983048 EQW983047:EQY983048 FAS983047:FAU983048 FKO983047:FKQ983048 FUK983047:FUM983048 GEG983047:GEI983048 GOC983047:GOE983048 GXY983047:GYA983048 HHU983047:HHW983048 HRQ983047:HRS983048 IBM983047:IBO983048 ILI983047:ILK983048 IVE983047:IVG983048 JFA983047:JFC983048 JOW983047:JOY983048 JYS983047:JYU983048 KIO983047:KIQ983048 KSK983047:KSM983048 LCG983047:LCI983048 LMC983047:LME983048 LVY983047:LWA983048 MFU983047:MFW983048 MPQ983047:MPS983048 MZM983047:MZO983048 NJI983047:NJK983048 NTE983047:NTG983048 ODA983047:ODC983048 OMW983047:OMY983048 OWS983047:OWU983048 PGO983047:PGQ983048 PQK983047:PQM983048 QAG983047:QAI983048 QKC983047:QKE983048 QTY983047:QUA983048 RDU983047:RDW983048 RNQ983047:RNS983048 RXM983047:RXO983048 SHI983047:SHK983048 SRE983047:SRG983048 TBA983047:TBC983048 TKW983047:TKY983048 TUS983047:TUU983048 UEO983047:UEQ983048 UOK983047:UOM983048 UYG983047:UYI983048 VIC983047:VIE983048 VRY983047:VSA983048 WBU983047:WBW983048 WLQ983047:WLS983048 WVM983047:WVO983048 WVM983049:WVZ983058 E65545:R65554 JA65545:JN65554 SW65545:TJ65554 ACS65545:ADF65554 AMO65545:ANB65554 AWK65545:AWX65554 BGG65545:BGT65554 BQC65545:BQP65554 BZY65545:CAL65554 CJU65545:CKH65554 CTQ65545:CUD65554 DDM65545:DDZ65554 DNI65545:DNV65554 DXE65545:DXR65554 EHA65545:EHN65554 EQW65545:ERJ65554 FAS65545:FBF65554 FKO65545:FLB65554 FUK65545:FUX65554 GEG65545:GET65554 GOC65545:GOP65554 GXY65545:GYL65554 HHU65545:HIH65554 HRQ65545:HSD65554 IBM65545:IBZ65554 ILI65545:ILV65554 IVE65545:IVR65554 JFA65545:JFN65554 JOW65545:JPJ65554 JYS65545:JZF65554 KIO65545:KJB65554 KSK65545:KSX65554 LCG65545:LCT65554 LMC65545:LMP65554 LVY65545:LWL65554 MFU65545:MGH65554 MPQ65545:MQD65554 MZM65545:MZZ65554 NJI65545:NJV65554 NTE65545:NTR65554 ODA65545:ODN65554 OMW65545:ONJ65554 OWS65545:OXF65554 PGO65545:PHB65554 PQK65545:PQX65554 QAG65545:QAT65554 QKC65545:QKP65554 QTY65545:QUL65554 RDU65545:REH65554 RNQ65545:ROD65554 RXM65545:RXZ65554 SHI65545:SHV65554 SRE65545:SRR65554 TBA65545:TBN65554 TKW65545:TLJ65554 TUS65545:TVF65554 UEO65545:UFB65554 UOK65545:UOX65554 UYG65545:UYT65554 VIC65545:VIP65554 VRY65545:VSL65554 WBU65545:WCH65554 WLQ65545:WMD65554 WVM65545:WVZ65554 E131081:R131090 JA131081:JN131090 SW131081:TJ131090 ACS131081:ADF131090 AMO131081:ANB131090 AWK131081:AWX131090 BGG131081:BGT131090 BQC131081:BQP131090 BZY131081:CAL131090 CJU131081:CKH131090 CTQ131081:CUD131090 DDM131081:DDZ131090 DNI131081:DNV131090 DXE131081:DXR131090 EHA131081:EHN131090 EQW131081:ERJ131090 FAS131081:FBF131090 FKO131081:FLB131090 FUK131081:FUX131090 GEG131081:GET131090 GOC131081:GOP131090 GXY131081:GYL131090 HHU131081:HIH131090 HRQ131081:HSD131090 IBM131081:IBZ131090 ILI131081:ILV131090 IVE131081:IVR131090 JFA131081:JFN131090 JOW131081:JPJ131090 JYS131081:JZF131090 KIO131081:KJB131090 KSK131081:KSX131090 LCG131081:LCT131090 LMC131081:LMP131090 LVY131081:LWL131090 MFU131081:MGH131090 MPQ131081:MQD131090 MZM131081:MZZ131090 NJI131081:NJV131090 NTE131081:NTR131090 ODA131081:ODN131090 OMW131081:ONJ131090 OWS131081:OXF131090 PGO131081:PHB131090 PQK131081:PQX131090 QAG131081:QAT131090 QKC131081:QKP131090 QTY131081:QUL131090 RDU131081:REH131090 RNQ131081:ROD131090 RXM131081:RXZ131090 SHI131081:SHV131090 SRE131081:SRR131090 TBA131081:TBN131090 TKW131081:TLJ131090 TUS131081:TVF131090 UEO131081:UFB131090 UOK131081:UOX131090 UYG131081:UYT131090 VIC131081:VIP131090 VRY131081:VSL131090 WBU131081:WCH131090 WLQ131081:WMD131090 WVM131081:WVZ131090 E196617:R196626 JA196617:JN196626 SW196617:TJ196626 ACS196617:ADF196626 AMO196617:ANB196626 AWK196617:AWX196626 BGG196617:BGT196626 BQC196617:BQP196626 BZY196617:CAL196626 CJU196617:CKH196626 CTQ196617:CUD196626 DDM196617:DDZ196626 DNI196617:DNV196626 DXE196617:DXR196626 EHA196617:EHN196626 EQW196617:ERJ196626 FAS196617:FBF196626 FKO196617:FLB196626 FUK196617:FUX196626 GEG196617:GET196626 GOC196617:GOP196626 GXY196617:GYL196626 HHU196617:HIH196626 HRQ196617:HSD196626 IBM196617:IBZ196626 ILI196617:ILV196626 IVE196617:IVR196626 JFA196617:JFN196626 JOW196617:JPJ196626 JYS196617:JZF196626 KIO196617:KJB196626 KSK196617:KSX196626 LCG196617:LCT196626 LMC196617:LMP196626 LVY196617:LWL196626 MFU196617:MGH196626 MPQ196617:MQD196626 MZM196617:MZZ196626 NJI196617:NJV196626 NTE196617:NTR196626 ODA196617:ODN196626 OMW196617:ONJ196626 OWS196617:OXF196626 PGO196617:PHB196626 PQK196617:PQX196626 QAG196617:QAT196626 QKC196617:QKP196626 QTY196617:QUL196626 RDU196617:REH196626 RNQ196617:ROD196626 RXM196617:RXZ196626 SHI196617:SHV196626 SRE196617:SRR196626 TBA196617:TBN196626 TKW196617:TLJ196626 TUS196617:TVF196626 UEO196617:UFB196626 UOK196617:UOX196626 UYG196617:UYT196626 VIC196617:VIP196626 VRY196617:VSL196626 WBU196617:WCH196626 WLQ196617:WMD196626 WVM196617:WVZ196626 E262153:R262162 JA262153:JN262162 SW262153:TJ262162 ACS262153:ADF262162 AMO262153:ANB262162 AWK262153:AWX262162 BGG262153:BGT262162 BQC262153:BQP262162 BZY262153:CAL262162 CJU262153:CKH262162 CTQ262153:CUD262162 DDM262153:DDZ262162 DNI262153:DNV262162 DXE262153:DXR262162 EHA262153:EHN262162 EQW262153:ERJ262162 FAS262153:FBF262162 FKO262153:FLB262162 FUK262153:FUX262162 GEG262153:GET262162 GOC262153:GOP262162 GXY262153:GYL262162 HHU262153:HIH262162 HRQ262153:HSD262162 IBM262153:IBZ262162 ILI262153:ILV262162 IVE262153:IVR262162 JFA262153:JFN262162 JOW262153:JPJ262162 JYS262153:JZF262162 KIO262153:KJB262162 KSK262153:KSX262162 LCG262153:LCT262162 LMC262153:LMP262162 LVY262153:LWL262162 MFU262153:MGH262162 MPQ262153:MQD262162 MZM262153:MZZ262162 NJI262153:NJV262162 NTE262153:NTR262162 ODA262153:ODN262162 OMW262153:ONJ262162 OWS262153:OXF262162 PGO262153:PHB262162 PQK262153:PQX262162 QAG262153:QAT262162 QKC262153:QKP262162 QTY262153:QUL262162 RDU262153:REH262162 RNQ262153:ROD262162 RXM262153:RXZ262162 SHI262153:SHV262162 SRE262153:SRR262162 TBA262153:TBN262162 TKW262153:TLJ262162 TUS262153:TVF262162 UEO262153:UFB262162 UOK262153:UOX262162 UYG262153:UYT262162 VIC262153:VIP262162 VRY262153:VSL262162 WBU262153:WCH262162 WLQ262153:WMD262162 WVM262153:WVZ262162 E327689:R327698 JA327689:JN327698 SW327689:TJ327698 ACS327689:ADF327698 AMO327689:ANB327698 AWK327689:AWX327698 BGG327689:BGT327698 BQC327689:BQP327698 BZY327689:CAL327698 CJU327689:CKH327698 CTQ327689:CUD327698 DDM327689:DDZ327698 DNI327689:DNV327698 DXE327689:DXR327698 EHA327689:EHN327698 EQW327689:ERJ327698 FAS327689:FBF327698 FKO327689:FLB327698 FUK327689:FUX327698 GEG327689:GET327698 GOC327689:GOP327698 GXY327689:GYL327698 HHU327689:HIH327698 HRQ327689:HSD327698 IBM327689:IBZ327698 ILI327689:ILV327698 IVE327689:IVR327698 JFA327689:JFN327698 JOW327689:JPJ327698 JYS327689:JZF327698 KIO327689:KJB327698 KSK327689:KSX327698 LCG327689:LCT327698 LMC327689:LMP327698 LVY327689:LWL327698 MFU327689:MGH327698 MPQ327689:MQD327698 MZM327689:MZZ327698 NJI327689:NJV327698 NTE327689:NTR327698 ODA327689:ODN327698 OMW327689:ONJ327698 OWS327689:OXF327698 PGO327689:PHB327698 PQK327689:PQX327698 QAG327689:QAT327698 QKC327689:QKP327698 QTY327689:QUL327698 RDU327689:REH327698 RNQ327689:ROD327698 RXM327689:RXZ327698 SHI327689:SHV327698 SRE327689:SRR327698 TBA327689:TBN327698 TKW327689:TLJ327698 TUS327689:TVF327698 UEO327689:UFB327698 UOK327689:UOX327698 UYG327689:UYT327698 VIC327689:VIP327698 VRY327689:VSL327698 WBU327689:WCH327698 WLQ327689:WMD327698 WVM327689:WVZ327698 E393225:R393234 JA393225:JN393234 SW393225:TJ393234 ACS393225:ADF393234 AMO393225:ANB393234 AWK393225:AWX393234 BGG393225:BGT393234 BQC393225:BQP393234 BZY393225:CAL393234 CJU393225:CKH393234 CTQ393225:CUD393234 DDM393225:DDZ393234 DNI393225:DNV393234 DXE393225:DXR393234 EHA393225:EHN393234 EQW393225:ERJ393234 FAS393225:FBF393234 FKO393225:FLB393234 FUK393225:FUX393234 GEG393225:GET393234 GOC393225:GOP393234 GXY393225:GYL393234 HHU393225:HIH393234 HRQ393225:HSD393234 IBM393225:IBZ393234 ILI393225:ILV393234 IVE393225:IVR393234 JFA393225:JFN393234 JOW393225:JPJ393234 JYS393225:JZF393234 KIO393225:KJB393234 KSK393225:KSX393234 LCG393225:LCT393234 LMC393225:LMP393234 LVY393225:LWL393234 MFU393225:MGH393234 MPQ393225:MQD393234 MZM393225:MZZ393234 NJI393225:NJV393234 NTE393225:NTR393234 ODA393225:ODN393234 OMW393225:ONJ393234 OWS393225:OXF393234 PGO393225:PHB393234 PQK393225:PQX393234 QAG393225:QAT393234 QKC393225:QKP393234 QTY393225:QUL393234 RDU393225:REH393234 RNQ393225:ROD393234 RXM393225:RXZ393234 SHI393225:SHV393234 SRE393225:SRR393234 TBA393225:TBN393234 TKW393225:TLJ393234 TUS393225:TVF393234 UEO393225:UFB393234 UOK393225:UOX393234 UYG393225:UYT393234 VIC393225:VIP393234 VRY393225:VSL393234 WBU393225:WCH393234 WLQ393225:WMD393234 WVM393225:WVZ393234 E458761:R458770 JA458761:JN458770 SW458761:TJ458770 ACS458761:ADF458770 AMO458761:ANB458770 AWK458761:AWX458770 BGG458761:BGT458770 BQC458761:BQP458770 BZY458761:CAL458770 CJU458761:CKH458770 CTQ458761:CUD458770 DDM458761:DDZ458770 DNI458761:DNV458770 DXE458761:DXR458770 EHA458761:EHN458770 EQW458761:ERJ458770 FAS458761:FBF458770 FKO458761:FLB458770 FUK458761:FUX458770 GEG458761:GET458770 GOC458761:GOP458770 GXY458761:GYL458770 HHU458761:HIH458770 HRQ458761:HSD458770 IBM458761:IBZ458770 ILI458761:ILV458770 IVE458761:IVR458770 JFA458761:JFN458770 JOW458761:JPJ458770 JYS458761:JZF458770 KIO458761:KJB458770 KSK458761:KSX458770 LCG458761:LCT458770 LMC458761:LMP458770 LVY458761:LWL458770 MFU458761:MGH458770 MPQ458761:MQD458770 MZM458761:MZZ458770 NJI458761:NJV458770 NTE458761:NTR458770 ODA458761:ODN458770 OMW458761:ONJ458770 OWS458761:OXF458770 PGO458761:PHB458770 PQK458761:PQX458770 QAG458761:QAT458770 QKC458761:QKP458770 QTY458761:QUL458770 RDU458761:REH458770 RNQ458761:ROD458770 RXM458761:RXZ458770 SHI458761:SHV458770 SRE458761:SRR458770 TBA458761:TBN458770 TKW458761:TLJ458770 TUS458761:TVF458770 UEO458761:UFB458770 UOK458761:UOX458770 UYG458761:UYT458770 VIC458761:VIP458770 VRY458761:VSL458770 WBU458761:WCH458770 WLQ458761:WMD458770 WVM458761:WVZ458770 E524297:R524306 JA524297:JN524306 SW524297:TJ524306 ACS524297:ADF524306 AMO524297:ANB524306 AWK524297:AWX524306 BGG524297:BGT524306 BQC524297:BQP524306 BZY524297:CAL524306 CJU524297:CKH524306 CTQ524297:CUD524306 DDM524297:DDZ524306 DNI524297:DNV524306 DXE524297:DXR524306 EHA524297:EHN524306 EQW524297:ERJ524306 FAS524297:FBF524306 FKO524297:FLB524306 FUK524297:FUX524306 GEG524297:GET524306 GOC524297:GOP524306 GXY524297:GYL524306 HHU524297:HIH524306 HRQ524297:HSD524306 IBM524297:IBZ524306 ILI524297:ILV524306 IVE524297:IVR524306 JFA524297:JFN524306 JOW524297:JPJ524306 JYS524297:JZF524306 KIO524297:KJB524306 KSK524297:KSX524306 LCG524297:LCT524306 LMC524297:LMP524306 LVY524297:LWL524306 MFU524297:MGH524306 MPQ524297:MQD524306 MZM524297:MZZ524306 NJI524297:NJV524306 NTE524297:NTR524306 ODA524297:ODN524306 OMW524297:ONJ524306 OWS524297:OXF524306 PGO524297:PHB524306 PQK524297:PQX524306 QAG524297:QAT524306 QKC524297:QKP524306 QTY524297:QUL524306 RDU524297:REH524306 RNQ524297:ROD524306 RXM524297:RXZ524306 SHI524297:SHV524306 SRE524297:SRR524306 TBA524297:TBN524306 TKW524297:TLJ524306 TUS524297:TVF524306 UEO524297:UFB524306 UOK524297:UOX524306 UYG524297:UYT524306 VIC524297:VIP524306 VRY524297:VSL524306 WBU524297:WCH524306 WLQ524297:WMD524306 WVM524297:WVZ524306 E589833:R589842 JA589833:JN589842 SW589833:TJ589842 ACS589833:ADF589842 AMO589833:ANB589842 AWK589833:AWX589842 BGG589833:BGT589842 BQC589833:BQP589842 BZY589833:CAL589842 CJU589833:CKH589842 CTQ589833:CUD589842 DDM589833:DDZ589842 DNI589833:DNV589842 DXE589833:DXR589842 EHA589833:EHN589842 EQW589833:ERJ589842 FAS589833:FBF589842 FKO589833:FLB589842 FUK589833:FUX589842 GEG589833:GET589842 GOC589833:GOP589842 GXY589833:GYL589842 HHU589833:HIH589842 HRQ589833:HSD589842 IBM589833:IBZ589842 ILI589833:ILV589842 IVE589833:IVR589842 JFA589833:JFN589842 JOW589833:JPJ589842 JYS589833:JZF589842 KIO589833:KJB589842 KSK589833:KSX589842 LCG589833:LCT589842 LMC589833:LMP589842 LVY589833:LWL589842 MFU589833:MGH589842 MPQ589833:MQD589842 MZM589833:MZZ589842 NJI589833:NJV589842 NTE589833:NTR589842 ODA589833:ODN589842 OMW589833:ONJ589842 OWS589833:OXF589842 PGO589833:PHB589842 PQK589833:PQX589842 QAG589833:QAT589842 QKC589833:QKP589842 QTY589833:QUL589842 RDU589833:REH589842 RNQ589833:ROD589842 RXM589833:RXZ589842 SHI589833:SHV589842 SRE589833:SRR589842 TBA589833:TBN589842 TKW589833:TLJ589842 TUS589833:TVF589842 UEO589833:UFB589842 UOK589833:UOX589842 UYG589833:UYT589842 VIC589833:VIP589842 VRY589833:VSL589842 WBU589833:WCH589842 WLQ589833:WMD589842 WVM589833:WVZ589842 E655369:R655378 JA655369:JN655378 SW655369:TJ655378 ACS655369:ADF655378 AMO655369:ANB655378 AWK655369:AWX655378 BGG655369:BGT655378 BQC655369:BQP655378 BZY655369:CAL655378 CJU655369:CKH655378 CTQ655369:CUD655378 DDM655369:DDZ655378 DNI655369:DNV655378 DXE655369:DXR655378 EHA655369:EHN655378 EQW655369:ERJ655378 FAS655369:FBF655378 FKO655369:FLB655378 FUK655369:FUX655378 GEG655369:GET655378 GOC655369:GOP655378 GXY655369:GYL655378 HHU655369:HIH655378 HRQ655369:HSD655378 IBM655369:IBZ655378 ILI655369:ILV655378 IVE655369:IVR655378 JFA655369:JFN655378 JOW655369:JPJ655378 JYS655369:JZF655378 KIO655369:KJB655378 KSK655369:KSX655378 LCG655369:LCT655378 LMC655369:LMP655378 LVY655369:LWL655378 MFU655369:MGH655378 MPQ655369:MQD655378 MZM655369:MZZ655378 NJI655369:NJV655378 NTE655369:NTR655378 ODA655369:ODN655378 OMW655369:ONJ655378 OWS655369:OXF655378 PGO655369:PHB655378 PQK655369:PQX655378 QAG655369:QAT655378 QKC655369:QKP655378 QTY655369:QUL655378 RDU655369:REH655378 RNQ655369:ROD655378 RXM655369:RXZ655378 SHI655369:SHV655378 SRE655369:SRR655378 TBA655369:TBN655378 TKW655369:TLJ655378 TUS655369:TVF655378 UEO655369:UFB655378 UOK655369:UOX655378 UYG655369:UYT655378 VIC655369:VIP655378 VRY655369:VSL655378 WBU655369:WCH655378 WLQ655369:WMD655378 WVM655369:WVZ655378 E720905:R720914 JA720905:JN720914 SW720905:TJ720914 ACS720905:ADF720914 AMO720905:ANB720914 AWK720905:AWX720914 BGG720905:BGT720914 BQC720905:BQP720914 BZY720905:CAL720914 CJU720905:CKH720914 CTQ720905:CUD720914 DDM720905:DDZ720914 DNI720905:DNV720914 DXE720905:DXR720914 EHA720905:EHN720914 EQW720905:ERJ720914 FAS720905:FBF720914 FKO720905:FLB720914 FUK720905:FUX720914 GEG720905:GET720914 GOC720905:GOP720914 GXY720905:GYL720914 HHU720905:HIH720914 HRQ720905:HSD720914 IBM720905:IBZ720914 ILI720905:ILV720914 IVE720905:IVR720914 JFA720905:JFN720914 JOW720905:JPJ720914 JYS720905:JZF720914 KIO720905:KJB720914 KSK720905:KSX720914 LCG720905:LCT720914 LMC720905:LMP720914 LVY720905:LWL720914 MFU720905:MGH720914 MPQ720905:MQD720914 MZM720905:MZZ720914 NJI720905:NJV720914 NTE720905:NTR720914 ODA720905:ODN720914 OMW720905:ONJ720914 OWS720905:OXF720914 PGO720905:PHB720914 PQK720905:PQX720914 QAG720905:QAT720914 QKC720905:QKP720914 QTY720905:QUL720914 RDU720905:REH720914 RNQ720905:ROD720914 RXM720905:RXZ720914 SHI720905:SHV720914 SRE720905:SRR720914 TBA720905:TBN720914 TKW720905:TLJ720914 TUS720905:TVF720914 UEO720905:UFB720914 UOK720905:UOX720914 UYG720905:UYT720914 VIC720905:VIP720914 VRY720905:VSL720914 WBU720905:WCH720914 WLQ720905:WMD720914 WVM720905:WVZ720914 E786441:R786450 JA786441:JN786450 SW786441:TJ786450 ACS786441:ADF786450 AMO786441:ANB786450 AWK786441:AWX786450 BGG786441:BGT786450 BQC786441:BQP786450 BZY786441:CAL786450 CJU786441:CKH786450 CTQ786441:CUD786450 DDM786441:DDZ786450 DNI786441:DNV786450 DXE786441:DXR786450 EHA786441:EHN786450 EQW786441:ERJ786450 FAS786441:FBF786450 FKO786441:FLB786450 FUK786441:FUX786450 GEG786441:GET786450 GOC786441:GOP786450 GXY786441:GYL786450 HHU786441:HIH786450 HRQ786441:HSD786450 IBM786441:IBZ786450 ILI786441:ILV786450 IVE786441:IVR786450 JFA786441:JFN786450 JOW786441:JPJ786450 JYS786441:JZF786450 KIO786441:KJB786450 KSK786441:KSX786450 LCG786441:LCT786450 LMC786441:LMP786450 LVY786441:LWL786450 MFU786441:MGH786450 MPQ786441:MQD786450 MZM786441:MZZ786450 NJI786441:NJV786450 NTE786441:NTR786450 ODA786441:ODN786450 OMW786441:ONJ786450 OWS786441:OXF786450 PGO786441:PHB786450 PQK786441:PQX786450 QAG786441:QAT786450 QKC786441:QKP786450 QTY786441:QUL786450 RDU786441:REH786450 RNQ786441:ROD786450 RXM786441:RXZ786450 SHI786441:SHV786450 SRE786441:SRR786450 TBA786441:TBN786450 TKW786441:TLJ786450 TUS786441:TVF786450 UEO786441:UFB786450 UOK786441:UOX786450 UYG786441:UYT786450 VIC786441:VIP786450 VRY786441:VSL786450 WBU786441:WCH786450 WLQ786441:WMD786450 WVM786441:WVZ786450 E851977:R851986 JA851977:JN851986 SW851977:TJ851986 ACS851977:ADF851986 AMO851977:ANB851986 AWK851977:AWX851986 BGG851977:BGT851986 BQC851977:BQP851986 BZY851977:CAL851986 CJU851977:CKH851986 CTQ851977:CUD851986 DDM851977:DDZ851986 DNI851977:DNV851986 DXE851977:DXR851986 EHA851977:EHN851986 EQW851977:ERJ851986 FAS851977:FBF851986 FKO851977:FLB851986 FUK851977:FUX851986 GEG851977:GET851986 GOC851977:GOP851986 GXY851977:GYL851986 HHU851977:HIH851986 HRQ851977:HSD851986 IBM851977:IBZ851986 ILI851977:ILV851986 IVE851977:IVR851986 JFA851977:JFN851986 JOW851977:JPJ851986 JYS851977:JZF851986 KIO851977:KJB851986 KSK851977:KSX851986 LCG851977:LCT851986 LMC851977:LMP851986 LVY851977:LWL851986 MFU851977:MGH851986 MPQ851977:MQD851986 MZM851977:MZZ851986 NJI851977:NJV851986 NTE851977:NTR851986 ODA851977:ODN851986 OMW851977:ONJ851986 OWS851977:OXF851986 PGO851977:PHB851986 PQK851977:PQX851986 QAG851977:QAT851986 QKC851977:QKP851986 QTY851977:QUL851986 RDU851977:REH851986 RNQ851977:ROD851986 RXM851977:RXZ851986 SHI851977:SHV851986 SRE851977:SRR851986 TBA851977:TBN851986 TKW851977:TLJ851986 TUS851977:TVF851986 UEO851977:UFB851986 UOK851977:UOX851986 UYG851977:UYT851986 VIC851977:VIP851986 VRY851977:VSL851986 WBU851977:WCH851986 WLQ851977:WMD851986 WVM851977:WVZ851986 E917513:R917522 JA917513:JN917522 SW917513:TJ917522 ACS917513:ADF917522 AMO917513:ANB917522 AWK917513:AWX917522 BGG917513:BGT917522 BQC917513:BQP917522 BZY917513:CAL917522 CJU917513:CKH917522 CTQ917513:CUD917522 DDM917513:DDZ917522 DNI917513:DNV917522 DXE917513:DXR917522 EHA917513:EHN917522 EQW917513:ERJ917522 FAS917513:FBF917522 FKO917513:FLB917522 FUK917513:FUX917522 GEG917513:GET917522 GOC917513:GOP917522 GXY917513:GYL917522 HHU917513:HIH917522 HRQ917513:HSD917522 IBM917513:IBZ917522 ILI917513:ILV917522 IVE917513:IVR917522 JFA917513:JFN917522 JOW917513:JPJ917522 JYS917513:JZF917522 KIO917513:KJB917522 KSK917513:KSX917522 LCG917513:LCT917522 LMC917513:LMP917522 LVY917513:LWL917522 MFU917513:MGH917522 MPQ917513:MQD917522 MZM917513:MZZ917522 NJI917513:NJV917522 NTE917513:NTR917522 ODA917513:ODN917522 OMW917513:ONJ917522 OWS917513:OXF917522 PGO917513:PHB917522 PQK917513:PQX917522 QAG917513:QAT917522 QKC917513:QKP917522 QTY917513:QUL917522 RDU917513:REH917522 RNQ917513:ROD917522 RXM917513:RXZ917522 SHI917513:SHV917522 SRE917513:SRR917522 TBA917513:TBN917522 TKW917513:TLJ917522 TUS917513:TVF917522 UEO917513:UFB917522 UOK917513:UOX917522 UYG917513:UYT917522 VIC917513:VIP917522 VRY917513:VSL917522 WBU917513:WCH917522 WLQ917513:WMD917522 WVM917513:WVZ917522 E983049:R983058 JA983049:JN983058 SW983049:TJ983058 ACS983049:ADF983058 AMO983049:ANB983058 AWK983049:AWX983058 BGG983049:BGT983058 BQC983049:BQP983058 BZY983049:CAL983058 CJU983049:CKH983058 CTQ983049:CUD983058 DDM983049:DDZ983058 DNI983049:DNV983058 DXE983049:DXR983058 EHA983049:EHN983058 EQW983049:ERJ983058 FAS983049:FBF983058 FKO983049:FLB983058 FUK983049:FUX983058 GEG983049:GET983058 GOC983049:GOP983058 GXY983049:GYL983058 HHU983049:HIH983058 HRQ983049:HSD983058 IBM983049:IBZ983058 ILI983049:ILV983058 IVE983049:IVR983058 JFA983049:JFN983058 JOW983049:JPJ983058 JYS983049:JZF983058 KIO983049:KJB983058 KSK983049:KSX983058 LCG983049:LCT983058 LMC983049:LMP983058 LVY983049:LWL983058 MFU983049:MGH983058 MPQ983049:MQD983058 MZM983049:MZZ983058 NJI983049:NJV983058 NTE983049:NTR983058 ODA983049:ODN983058 OMW983049:ONJ983058 OWS983049:OXF983058 PGO983049:PHB983058 PQK983049:PQX983058 QAG983049:QAT983058 QKC983049:QKP983058 QTY983049:QUL983058 RDU983049:REH983058 RNQ983049:ROD983058 RXM983049:RXZ983058 SHI983049:SHV983058 SRE983049:SRR983058 TBA983049:TBN983058 TKW983049:TLJ983058 TUS983049:TVF983058 UEO983049:UFB983058 UOK983049:UOX983058 UYG983049:UYT983058 VIC983049:VIP983058 VRY983049:VSL983058 WBU983049:WCH983058 WLQ983049:WMD983058 E11:R18 WVM11:WVZ18 WLQ11:WMD18 WBU11:WCH18 VRY11:VSL18 VIC11:VIP18 UYG11:UYT18 UOK11:UOX18 UEO11:UFB18 TUS11:TVF18 TKW11:TLJ18 TBA11:TBN18 SRE11:SRR18 SHI11:SHV18 RXM11:RXZ18 RNQ11:ROD18 RDU11:REH18 QTY11:QUL18 QKC11:QKP18 QAG11:QAT18 PQK11:PQX18 PGO11:PHB18 OWS11:OXF18 OMW11:ONJ18 ODA11:ODN18 NTE11:NTR18 NJI11:NJV18 MZM11:MZZ18 MPQ11:MQD18 MFU11:MGH18 LVY11:LWL18 LMC11:LMP18 LCG11:LCT18 KSK11:KSX18 KIO11:KJB18 JYS11:JZF18 JOW11:JPJ18 JFA11:JFN18 IVE11:IVR18 ILI11:ILV18 IBM11:IBZ18 HRQ11:HSD18 HHU11:HIH18 GXY11:GYL18 GOC11:GOP18 GEG11:GET18 FUK11:FUX18 FKO11:FLB18 FAS11:FBF18 EQW11:ERJ18 EHA11:EHN18 DXE11:DXR18 DNI11:DNV18 DDM11:DDZ18 CTQ11:CUD18 CJU11:CKH18 BZY11:CAL18 BQC11:BQP18 BGG11:BGT18 AWK11:AWX18 AMO11:ANB18 ACS11:ADF18 SW11:TJ18 JA11:JN18">
@@ -10675,136 +10675,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>AddNewOrganization</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E19:HM19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E19:HO19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E18:HM18,"N")</f>
         <v>0</v>
@@ -10817,16 +10817,16 @@
         <f>COUNTIF(E18:HM18,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -11068,11 +11068,11 @@
       <c r="A18" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="205" t="s">
+      <c r="B18" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="206"/>
-      <c r="D18" s="207"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="156" t="s">
         <v>36</v>
       </c>
@@ -11094,11 +11094,11 @@
     </row>
     <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="137"/>
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="210"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="135" t="s">
         <v>38</v>
       </c>
@@ -11120,11 +11120,11 @@
     </row>
     <row r="20" spans="1:18" ht="64.5" customHeight="1">
       <c r="A20" s="137"/>
-      <c r="B20" s="195" t="s">
+      <c r="B20" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="227"/>
       <c r="E20" s="134">
         <v>42594</v>
       </c>
@@ -11239,6 +11239,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -11247,20 +11261,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:R19 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 WVM983059:WVZ983059">
@@ -11816,136 +11816,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>UpdateOrganization</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E20:HM20,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E20:HO20,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E19:HM19,"N")</f>
         <v>0</v>
@@ -11958,16 +11958,16 @@
         <f>COUNTIF(E19:HM19,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -12251,11 +12251,11 @@
       <c r="A19" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="205" t="s">
+      <c r="B19" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="207"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="156" t="s">
         <v>36</v>
       </c>
@@ -12279,11 +12279,11 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="137"/>
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="135" t="s">
         <v>38</v>
       </c>
@@ -12307,11 +12307,11 @@
     </row>
     <row r="21" spans="1:18" ht="54">
       <c r="A21" s="137"/>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="227"/>
       <c r="E21" s="134">
         <v>42594</v>
       </c>
@@ -12358,6 +12358,20 @@
     <row r="52" s="127" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -12366,20 +12380,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983059:WVZ983059 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 E19:R19">
@@ -12409,7 +12409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -12934,136 +12934,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>GetOrganizationById</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E20:HM20,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E20:HO20,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E19:HM19,"N")</f>
         <v>0</v>
@@ -13076,16 +13076,16 @@
         <f>COUNTIF(E19:HM19,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -13353,11 +13353,11 @@
       <c r="A19" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="205" t="s">
+      <c r="B19" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="207"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="156" t="s">
         <v>36</v>
       </c>
@@ -13379,11 +13379,11 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="137"/>
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="135" t="s">
         <v>38</v>
       </c>
@@ -13405,11 +13405,11 @@
     </row>
     <row r="21" spans="1:18" ht="54">
       <c r="A21" s="137"/>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="227"/>
       <c r="E21" s="134">
         <v>42594</v>
       </c>
@@ -13454,6 +13454,20 @@
     <row r="52" s="127" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -13462,20 +13476,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:R19 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 WVM983059:WVZ983059">
@@ -13526,136 +13526,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>GetTopOrganization</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E21:HM21,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E21:HO21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E20:HM20,"N")</f>
         <v>0</v>
@@ -13668,16 +13668,16 @@
         <f>COUNTIF(E20:HO20,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:R8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -14000,11 +14000,11 @@
     </row>
     <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" s="137"/>
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="135" t="s">
         <v>38</v>
       </c>
@@ -14028,11 +14028,11 @@
     </row>
     <row r="22" spans="1:18" ht="60" customHeight="1">
       <c r="A22" s="137"/>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="134">
         <v>42594</v>
       </c>
@@ -14076,14 +14076,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="L6:R6"/>
     <mergeCell ref="A4:B4"/>
@@ -14093,11 +14090,14 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:R17 F18:G18">
@@ -14644,136 +14644,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="197" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227" t="s">
+      <c r="D2" s="198"/>
+      <c r="E2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="230" t="str">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>C2</f>
         <v>CountOrganizationVerifyOrNot</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
       <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="233" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="238" t="str">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="217"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="224"/>
       <c r="T5" s="74"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="198">
+      <c r="A6" s="228">
         <f>COUNTIF(E21:HM21,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230">
         <f>COUNTIF(E21:HO21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="202">
+      <c r="D6" s="231"/>
+      <c r="E6" s="232">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="203"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="118">
         <f>COUNTIF(E20:HM20,"N")</f>
         <v>0</v>
@@ -14786,16 +14786,16 @@
         <f>COUNTIF(E20:HM20,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="202">
+      <c r="L6" s="232">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="204"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -15102,11 +15102,11 @@
       <c r="A20" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="207"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="156" t="s">
         <v>36</v>
       </c>
@@ -15130,11 +15130,11 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="137"/>
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="135" t="s">
         <v>38</v>
       </c>
@@ -15158,11 +15158,11 @@
     </row>
     <row r="22" spans="1:18" ht="54">
       <c r="A22" s="137"/>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="134">
         <v>42594</v>
       </c>
@@ -15269,6 +15269,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -15277,20 +15291,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983061:WVZ983061 JA21:JN21 SW21:TJ21 ACS21:ADF21 AMO21:ANB21 AWK21:AWX21 BGG21:BGT21 BQC21:BQP21 BZY21:CAL21 CJU21:CKH21 CTQ21:CUD21 DDM21:DDZ21 DNI21:DNV21 DXE21:DXR21 EHA21:EHN21 EQW21:ERJ21 FAS21:FBF21 FKO21:FLB21 FUK21:FUX21 GEG21:GET21 GOC21:GOP21 GXY21:GYL21 HHU21:HIH21 HRQ21:HSD21 IBM21:IBZ21 ILI21:ILV21 IVE21:IVR21 JFA21:JFN21 JOW21:JPJ21 JYS21:JZF21 KIO21:KJB21 KSK21:KSX21 LCG21:LCT21 LMC21:LMP21 LVY21:LWL21 MFU21:MGH21 MPQ21:MQD21 MZM21:MZZ21 NJI21:NJV21 NTE21:NTR21 ODA21:ODN21 OMW21:ONJ21 OWS21:OXF21 PGO21:PHB21 PQK21:PQX21 QAG21:QAT21 QKC21:QKP21 QTY21:QUL21 RDU21:REH21 RNQ21:ROD21 RXM21:RXZ21 SHI21:SHV21 SRE21:SRR21 TBA21:TBN21 TKW21:TLJ21 TUS21:TVF21 UEO21:UFB21 UOK21:UOX21 UYG21:UYT21 VIC21:VIP21 VRY21:VSL21 WBU21:WCH21 WLQ21:WMD21 WVM21:WVZ21 E65557:R65557 JA65557:JN65557 SW65557:TJ65557 ACS65557:ADF65557 AMO65557:ANB65557 AWK65557:AWX65557 BGG65557:BGT65557 BQC65557:BQP65557 BZY65557:CAL65557 CJU65557:CKH65557 CTQ65557:CUD65557 DDM65557:DDZ65557 DNI65557:DNV65557 DXE65557:DXR65557 EHA65557:EHN65557 EQW65557:ERJ65557 FAS65557:FBF65557 FKO65557:FLB65557 FUK65557:FUX65557 GEG65557:GET65557 GOC65557:GOP65557 GXY65557:GYL65557 HHU65557:HIH65557 HRQ65557:HSD65557 IBM65557:IBZ65557 ILI65557:ILV65557 IVE65557:IVR65557 JFA65557:JFN65557 JOW65557:JPJ65557 JYS65557:JZF65557 KIO65557:KJB65557 KSK65557:KSX65557 LCG65557:LCT65557 LMC65557:LMP65557 LVY65557:LWL65557 MFU65557:MGH65557 MPQ65557:MQD65557 MZM65557:MZZ65557 NJI65557:NJV65557 NTE65557:NTR65557 ODA65557:ODN65557 OMW65557:ONJ65557 OWS65557:OXF65557 PGO65557:PHB65557 PQK65557:PQX65557 QAG65557:QAT65557 QKC65557:QKP65557 QTY65557:QUL65557 RDU65557:REH65557 RNQ65557:ROD65557 RXM65557:RXZ65557 SHI65557:SHV65557 SRE65557:SRR65557 TBA65557:TBN65557 TKW65557:TLJ65557 TUS65557:TVF65557 UEO65557:UFB65557 UOK65557:UOX65557 UYG65557:UYT65557 VIC65557:VIP65557 VRY65557:VSL65557 WBU65557:WCH65557 WLQ65557:WMD65557 WVM65557:WVZ65557 E131093:R131093 JA131093:JN131093 SW131093:TJ131093 ACS131093:ADF131093 AMO131093:ANB131093 AWK131093:AWX131093 BGG131093:BGT131093 BQC131093:BQP131093 BZY131093:CAL131093 CJU131093:CKH131093 CTQ131093:CUD131093 DDM131093:DDZ131093 DNI131093:DNV131093 DXE131093:DXR131093 EHA131093:EHN131093 EQW131093:ERJ131093 FAS131093:FBF131093 FKO131093:FLB131093 FUK131093:FUX131093 GEG131093:GET131093 GOC131093:GOP131093 GXY131093:GYL131093 HHU131093:HIH131093 HRQ131093:HSD131093 IBM131093:IBZ131093 ILI131093:ILV131093 IVE131093:IVR131093 JFA131093:JFN131093 JOW131093:JPJ131093 JYS131093:JZF131093 KIO131093:KJB131093 KSK131093:KSX131093 LCG131093:LCT131093 LMC131093:LMP131093 LVY131093:LWL131093 MFU131093:MGH131093 MPQ131093:MQD131093 MZM131093:MZZ131093 NJI131093:NJV131093 NTE131093:NTR131093 ODA131093:ODN131093 OMW131093:ONJ131093 OWS131093:OXF131093 PGO131093:PHB131093 PQK131093:PQX131093 QAG131093:QAT131093 QKC131093:QKP131093 QTY131093:QUL131093 RDU131093:REH131093 RNQ131093:ROD131093 RXM131093:RXZ131093 SHI131093:SHV131093 SRE131093:SRR131093 TBA131093:TBN131093 TKW131093:TLJ131093 TUS131093:TVF131093 UEO131093:UFB131093 UOK131093:UOX131093 UYG131093:UYT131093 VIC131093:VIP131093 VRY131093:VSL131093 WBU131093:WCH131093 WLQ131093:WMD131093 WVM131093:WVZ131093 E196629:R196629 JA196629:JN196629 SW196629:TJ196629 ACS196629:ADF196629 AMO196629:ANB196629 AWK196629:AWX196629 BGG196629:BGT196629 BQC196629:BQP196629 BZY196629:CAL196629 CJU196629:CKH196629 CTQ196629:CUD196629 DDM196629:DDZ196629 DNI196629:DNV196629 DXE196629:DXR196629 EHA196629:EHN196629 EQW196629:ERJ196629 FAS196629:FBF196629 FKO196629:FLB196629 FUK196629:FUX196629 GEG196629:GET196629 GOC196629:GOP196629 GXY196629:GYL196629 HHU196629:HIH196629 HRQ196629:HSD196629 IBM196629:IBZ196629 ILI196629:ILV196629 IVE196629:IVR196629 JFA196629:JFN196629 JOW196629:JPJ196629 JYS196629:JZF196629 KIO196629:KJB196629 KSK196629:KSX196629 LCG196629:LCT196629 LMC196629:LMP196629 LVY196629:LWL196629 MFU196629:MGH196629 MPQ196629:MQD196629 MZM196629:MZZ196629 NJI196629:NJV196629 NTE196629:NTR196629 ODA196629:ODN196629 OMW196629:ONJ196629 OWS196629:OXF196629 PGO196629:PHB196629 PQK196629:PQX196629 QAG196629:QAT196629 QKC196629:QKP196629 QTY196629:QUL196629 RDU196629:REH196629 RNQ196629:ROD196629 RXM196629:RXZ196629 SHI196629:SHV196629 SRE196629:SRR196629 TBA196629:TBN196629 TKW196629:TLJ196629 TUS196629:TVF196629 UEO196629:UFB196629 UOK196629:UOX196629 UYG196629:UYT196629 VIC196629:VIP196629 VRY196629:VSL196629 WBU196629:WCH196629 WLQ196629:WMD196629 WVM196629:WVZ196629 E262165:R262165 JA262165:JN262165 SW262165:TJ262165 ACS262165:ADF262165 AMO262165:ANB262165 AWK262165:AWX262165 BGG262165:BGT262165 BQC262165:BQP262165 BZY262165:CAL262165 CJU262165:CKH262165 CTQ262165:CUD262165 DDM262165:DDZ262165 DNI262165:DNV262165 DXE262165:DXR262165 EHA262165:EHN262165 EQW262165:ERJ262165 FAS262165:FBF262165 FKO262165:FLB262165 FUK262165:FUX262165 GEG262165:GET262165 GOC262165:GOP262165 GXY262165:GYL262165 HHU262165:HIH262165 HRQ262165:HSD262165 IBM262165:IBZ262165 ILI262165:ILV262165 IVE262165:IVR262165 JFA262165:JFN262165 JOW262165:JPJ262165 JYS262165:JZF262165 KIO262165:KJB262165 KSK262165:KSX262165 LCG262165:LCT262165 LMC262165:LMP262165 LVY262165:LWL262165 MFU262165:MGH262165 MPQ262165:MQD262165 MZM262165:MZZ262165 NJI262165:NJV262165 NTE262165:NTR262165 ODA262165:ODN262165 OMW262165:ONJ262165 OWS262165:OXF262165 PGO262165:PHB262165 PQK262165:PQX262165 QAG262165:QAT262165 QKC262165:QKP262165 QTY262165:QUL262165 RDU262165:REH262165 RNQ262165:ROD262165 RXM262165:RXZ262165 SHI262165:SHV262165 SRE262165:SRR262165 TBA262165:TBN262165 TKW262165:TLJ262165 TUS262165:TVF262165 UEO262165:UFB262165 UOK262165:UOX262165 UYG262165:UYT262165 VIC262165:VIP262165 VRY262165:VSL262165 WBU262165:WCH262165 WLQ262165:WMD262165 WVM262165:WVZ262165 E327701:R327701 JA327701:JN327701 SW327701:TJ327701 ACS327701:ADF327701 AMO327701:ANB327701 AWK327701:AWX327701 BGG327701:BGT327701 BQC327701:BQP327701 BZY327701:CAL327701 CJU327701:CKH327701 CTQ327701:CUD327701 DDM327701:DDZ327701 DNI327701:DNV327701 DXE327701:DXR327701 EHA327701:EHN327701 EQW327701:ERJ327701 FAS327701:FBF327701 FKO327701:FLB327701 FUK327701:FUX327701 GEG327701:GET327701 GOC327701:GOP327701 GXY327701:GYL327701 HHU327701:HIH327701 HRQ327701:HSD327701 IBM327701:IBZ327701 ILI327701:ILV327701 IVE327701:IVR327701 JFA327701:JFN327701 JOW327701:JPJ327701 JYS327701:JZF327701 KIO327701:KJB327701 KSK327701:KSX327701 LCG327701:LCT327701 LMC327701:LMP327701 LVY327701:LWL327701 MFU327701:MGH327701 MPQ327701:MQD327701 MZM327701:MZZ327701 NJI327701:NJV327701 NTE327701:NTR327701 ODA327701:ODN327701 OMW327701:ONJ327701 OWS327701:OXF327701 PGO327701:PHB327701 PQK327701:PQX327701 QAG327701:QAT327701 QKC327701:QKP327701 QTY327701:QUL327701 RDU327701:REH327701 RNQ327701:ROD327701 RXM327701:RXZ327701 SHI327701:SHV327701 SRE327701:SRR327701 TBA327701:TBN327701 TKW327701:TLJ327701 TUS327701:TVF327701 UEO327701:UFB327701 UOK327701:UOX327701 UYG327701:UYT327701 VIC327701:VIP327701 VRY327701:VSL327701 WBU327701:WCH327701 WLQ327701:WMD327701 WVM327701:WVZ327701 E393237:R393237 JA393237:JN393237 SW393237:TJ393237 ACS393237:ADF393237 AMO393237:ANB393237 AWK393237:AWX393237 BGG393237:BGT393237 BQC393237:BQP393237 BZY393237:CAL393237 CJU393237:CKH393237 CTQ393237:CUD393237 DDM393237:DDZ393237 DNI393237:DNV393237 DXE393237:DXR393237 EHA393237:EHN393237 EQW393237:ERJ393237 FAS393237:FBF393237 FKO393237:FLB393237 FUK393237:FUX393237 GEG393237:GET393237 GOC393237:GOP393237 GXY393237:GYL393237 HHU393237:HIH393237 HRQ393237:HSD393237 IBM393237:IBZ393237 ILI393237:ILV393237 IVE393237:IVR393237 JFA393237:JFN393237 JOW393237:JPJ393237 JYS393237:JZF393237 KIO393237:KJB393237 KSK393237:KSX393237 LCG393237:LCT393237 LMC393237:LMP393237 LVY393237:LWL393237 MFU393237:MGH393237 MPQ393237:MQD393237 MZM393237:MZZ393237 NJI393237:NJV393237 NTE393237:NTR393237 ODA393237:ODN393237 OMW393237:ONJ393237 OWS393237:OXF393237 PGO393237:PHB393237 PQK393237:PQX393237 QAG393237:QAT393237 QKC393237:QKP393237 QTY393237:QUL393237 RDU393237:REH393237 RNQ393237:ROD393237 RXM393237:RXZ393237 SHI393237:SHV393237 SRE393237:SRR393237 TBA393237:TBN393237 TKW393237:TLJ393237 TUS393237:TVF393237 UEO393237:UFB393237 UOK393237:UOX393237 UYG393237:UYT393237 VIC393237:VIP393237 VRY393237:VSL393237 WBU393237:WCH393237 WLQ393237:WMD393237 WVM393237:WVZ393237 E458773:R458773 JA458773:JN458773 SW458773:TJ458773 ACS458773:ADF458773 AMO458773:ANB458773 AWK458773:AWX458773 BGG458773:BGT458773 BQC458773:BQP458773 BZY458773:CAL458773 CJU458773:CKH458773 CTQ458773:CUD458773 DDM458773:DDZ458773 DNI458773:DNV458773 DXE458773:DXR458773 EHA458773:EHN458773 EQW458773:ERJ458773 FAS458773:FBF458773 FKO458773:FLB458773 FUK458773:FUX458773 GEG458773:GET458773 GOC458773:GOP458773 GXY458773:GYL458773 HHU458773:HIH458773 HRQ458773:HSD458773 IBM458773:IBZ458773 ILI458773:ILV458773 IVE458773:IVR458773 JFA458773:JFN458773 JOW458773:JPJ458773 JYS458773:JZF458773 KIO458773:KJB458773 KSK458773:KSX458773 LCG458773:LCT458773 LMC458773:LMP458773 LVY458773:LWL458773 MFU458773:MGH458773 MPQ458773:MQD458773 MZM458773:MZZ458773 NJI458773:NJV458773 NTE458773:NTR458773 ODA458773:ODN458773 OMW458773:ONJ458773 OWS458773:OXF458773 PGO458773:PHB458773 PQK458773:PQX458773 QAG458773:QAT458773 QKC458773:QKP458773 QTY458773:QUL458773 RDU458773:REH458773 RNQ458773:ROD458773 RXM458773:RXZ458773 SHI458773:SHV458773 SRE458773:SRR458773 TBA458773:TBN458773 TKW458773:TLJ458773 TUS458773:TVF458773 UEO458773:UFB458773 UOK458773:UOX458773 UYG458773:UYT458773 VIC458773:VIP458773 VRY458773:VSL458773 WBU458773:WCH458773 WLQ458773:WMD458773 WVM458773:WVZ458773 E524309:R524309 JA524309:JN524309 SW524309:TJ524309 ACS524309:ADF524309 AMO524309:ANB524309 AWK524309:AWX524309 BGG524309:BGT524309 BQC524309:BQP524309 BZY524309:CAL524309 CJU524309:CKH524309 CTQ524309:CUD524309 DDM524309:DDZ524309 DNI524309:DNV524309 DXE524309:DXR524309 EHA524309:EHN524309 EQW524309:ERJ524309 FAS524309:FBF524309 FKO524309:FLB524309 FUK524309:FUX524309 GEG524309:GET524309 GOC524309:GOP524309 GXY524309:GYL524309 HHU524309:HIH524309 HRQ524309:HSD524309 IBM524309:IBZ524309 ILI524309:ILV524309 IVE524309:IVR524309 JFA524309:JFN524309 JOW524309:JPJ524309 JYS524309:JZF524309 KIO524309:KJB524309 KSK524309:KSX524309 LCG524309:LCT524309 LMC524309:LMP524309 LVY524309:LWL524309 MFU524309:MGH524309 MPQ524309:MQD524309 MZM524309:MZZ524309 NJI524309:NJV524309 NTE524309:NTR524309 ODA524309:ODN524309 OMW524309:ONJ524309 OWS524309:OXF524309 PGO524309:PHB524309 PQK524309:PQX524309 QAG524309:QAT524309 QKC524309:QKP524309 QTY524309:QUL524309 RDU524309:REH524309 RNQ524309:ROD524309 RXM524309:RXZ524309 SHI524309:SHV524309 SRE524309:SRR524309 TBA524309:TBN524309 TKW524309:TLJ524309 TUS524309:TVF524309 UEO524309:UFB524309 UOK524309:UOX524309 UYG524309:UYT524309 VIC524309:VIP524309 VRY524309:VSL524309 WBU524309:WCH524309 WLQ524309:WMD524309 WVM524309:WVZ524309 E589845:R589845 JA589845:JN589845 SW589845:TJ589845 ACS589845:ADF589845 AMO589845:ANB589845 AWK589845:AWX589845 BGG589845:BGT589845 BQC589845:BQP589845 BZY589845:CAL589845 CJU589845:CKH589845 CTQ589845:CUD589845 DDM589845:DDZ589845 DNI589845:DNV589845 DXE589845:DXR589845 EHA589845:EHN589845 EQW589845:ERJ589845 FAS589845:FBF589845 FKO589845:FLB589845 FUK589845:FUX589845 GEG589845:GET589845 GOC589845:GOP589845 GXY589845:GYL589845 HHU589845:HIH589845 HRQ589845:HSD589845 IBM589845:IBZ589845 ILI589845:ILV589845 IVE589845:IVR589845 JFA589845:JFN589845 JOW589845:JPJ589845 JYS589845:JZF589845 KIO589845:KJB589845 KSK589845:KSX589845 LCG589845:LCT589845 LMC589845:LMP589845 LVY589845:LWL589845 MFU589845:MGH589845 MPQ589845:MQD589845 MZM589845:MZZ589845 NJI589845:NJV589845 NTE589845:NTR589845 ODA589845:ODN589845 OMW589845:ONJ589845 OWS589845:OXF589845 PGO589845:PHB589845 PQK589845:PQX589845 QAG589845:QAT589845 QKC589845:QKP589845 QTY589845:QUL589845 RDU589845:REH589845 RNQ589845:ROD589845 RXM589845:RXZ589845 SHI589845:SHV589845 SRE589845:SRR589845 TBA589845:TBN589845 TKW589845:TLJ589845 TUS589845:TVF589845 UEO589845:UFB589845 UOK589845:UOX589845 UYG589845:UYT589845 VIC589845:VIP589845 VRY589845:VSL589845 WBU589845:WCH589845 WLQ589845:WMD589845 WVM589845:WVZ589845 E655381:R655381 JA655381:JN655381 SW655381:TJ655381 ACS655381:ADF655381 AMO655381:ANB655381 AWK655381:AWX655381 BGG655381:BGT655381 BQC655381:BQP655381 BZY655381:CAL655381 CJU655381:CKH655381 CTQ655381:CUD655381 DDM655381:DDZ655381 DNI655381:DNV655381 DXE655381:DXR655381 EHA655381:EHN655381 EQW655381:ERJ655381 FAS655381:FBF655381 FKO655381:FLB655381 FUK655381:FUX655381 GEG655381:GET655381 GOC655381:GOP655381 GXY655381:GYL655381 HHU655381:HIH655381 HRQ655381:HSD655381 IBM655381:IBZ655381 ILI655381:ILV655381 IVE655381:IVR655381 JFA655381:JFN655381 JOW655381:JPJ655381 JYS655381:JZF655381 KIO655381:KJB655381 KSK655381:KSX655381 LCG655381:LCT655381 LMC655381:LMP655381 LVY655381:LWL655381 MFU655381:MGH655381 MPQ655381:MQD655381 MZM655381:MZZ655381 NJI655381:NJV655381 NTE655381:NTR655381 ODA655381:ODN655381 OMW655381:ONJ655381 OWS655381:OXF655381 PGO655381:PHB655381 PQK655381:PQX655381 QAG655381:QAT655381 QKC655381:QKP655381 QTY655381:QUL655381 RDU655381:REH655381 RNQ655381:ROD655381 RXM655381:RXZ655381 SHI655381:SHV655381 SRE655381:SRR655381 TBA655381:TBN655381 TKW655381:TLJ655381 TUS655381:TVF655381 UEO655381:UFB655381 UOK655381:UOX655381 UYG655381:UYT655381 VIC655381:VIP655381 VRY655381:VSL655381 WBU655381:WCH655381 WLQ655381:WMD655381 WVM655381:WVZ655381 E720917:R720917 JA720917:JN720917 SW720917:TJ720917 ACS720917:ADF720917 AMO720917:ANB720917 AWK720917:AWX720917 BGG720917:BGT720917 BQC720917:BQP720917 BZY720917:CAL720917 CJU720917:CKH720917 CTQ720917:CUD720917 DDM720917:DDZ720917 DNI720917:DNV720917 DXE720917:DXR720917 EHA720917:EHN720917 EQW720917:ERJ720917 FAS720917:FBF720917 FKO720917:FLB720917 FUK720917:FUX720917 GEG720917:GET720917 GOC720917:GOP720917 GXY720917:GYL720917 HHU720917:HIH720917 HRQ720917:HSD720917 IBM720917:IBZ720917 ILI720917:ILV720917 IVE720917:IVR720917 JFA720917:JFN720917 JOW720917:JPJ720917 JYS720917:JZF720917 KIO720917:KJB720917 KSK720917:KSX720917 LCG720917:LCT720917 LMC720917:LMP720917 LVY720917:LWL720917 MFU720917:MGH720917 MPQ720917:MQD720917 MZM720917:MZZ720917 NJI720917:NJV720917 NTE720917:NTR720917 ODA720917:ODN720917 OMW720917:ONJ720917 OWS720917:OXF720917 PGO720917:PHB720917 PQK720917:PQX720917 QAG720917:QAT720917 QKC720917:QKP720917 QTY720917:QUL720917 RDU720917:REH720917 RNQ720917:ROD720917 RXM720917:RXZ720917 SHI720917:SHV720917 SRE720917:SRR720917 TBA720917:TBN720917 TKW720917:TLJ720917 TUS720917:TVF720917 UEO720917:UFB720917 UOK720917:UOX720917 UYG720917:UYT720917 VIC720917:VIP720917 VRY720917:VSL720917 WBU720917:WCH720917 WLQ720917:WMD720917 WVM720917:WVZ720917 E786453:R786453 JA786453:JN786453 SW786453:TJ786453 ACS786453:ADF786453 AMO786453:ANB786453 AWK786453:AWX786453 BGG786453:BGT786453 BQC786453:BQP786453 BZY786453:CAL786453 CJU786453:CKH786453 CTQ786453:CUD786453 DDM786453:DDZ786453 DNI786453:DNV786453 DXE786453:DXR786453 EHA786453:EHN786453 EQW786453:ERJ786453 FAS786453:FBF786453 FKO786453:FLB786453 FUK786453:FUX786453 GEG786453:GET786453 GOC786453:GOP786453 GXY786453:GYL786453 HHU786453:HIH786453 HRQ786453:HSD786453 IBM786453:IBZ786453 ILI786453:ILV786453 IVE786453:IVR786453 JFA786453:JFN786453 JOW786453:JPJ786453 JYS786453:JZF786453 KIO786453:KJB786453 KSK786453:KSX786453 LCG786453:LCT786453 LMC786453:LMP786453 LVY786453:LWL786453 MFU786453:MGH786453 MPQ786453:MQD786453 MZM786453:MZZ786453 NJI786453:NJV786453 NTE786453:NTR786453 ODA786453:ODN786453 OMW786453:ONJ786453 OWS786453:OXF786453 PGO786453:PHB786453 PQK786453:PQX786453 QAG786453:QAT786453 QKC786453:QKP786453 QTY786453:QUL786453 RDU786453:REH786453 RNQ786453:ROD786453 RXM786453:RXZ786453 SHI786453:SHV786453 SRE786453:SRR786453 TBA786453:TBN786453 TKW786453:TLJ786453 TUS786453:TVF786453 UEO786453:UFB786453 UOK786453:UOX786453 UYG786453:UYT786453 VIC786453:VIP786453 VRY786453:VSL786453 WBU786453:WCH786453 WLQ786453:WMD786453 WVM786453:WVZ786453 E851989:R851989 JA851989:JN851989 SW851989:TJ851989 ACS851989:ADF851989 AMO851989:ANB851989 AWK851989:AWX851989 BGG851989:BGT851989 BQC851989:BQP851989 BZY851989:CAL851989 CJU851989:CKH851989 CTQ851989:CUD851989 DDM851989:DDZ851989 DNI851989:DNV851989 DXE851989:DXR851989 EHA851989:EHN851989 EQW851989:ERJ851989 FAS851989:FBF851989 FKO851989:FLB851989 FUK851989:FUX851989 GEG851989:GET851989 GOC851989:GOP851989 GXY851989:GYL851989 HHU851989:HIH851989 HRQ851989:HSD851989 IBM851989:IBZ851989 ILI851989:ILV851989 IVE851989:IVR851989 JFA851989:JFN851989 JOW851989:JPJ851989 JYS851989:JZF851989 KIO851989:KJB851989 KSK851989:KSX851989 LCG851989:LCT851989 LMC851989:LMP851989 LVY851989:LWL851989 MFU851989:MGH851989 MPQ851989:MQD851989 MZM851989:MZZ851989 NJI851989:NJV851989 NTE851989:NTR851989 ODA851989:ODN851989 OMW851989:ONJ851989 OWS851989:OXF851989 PGO851989:PHB851989 PQK851989:PQX851989 QAG851989:QAT851989 QKC851989:QKP851989 QTY851989:QUL851989 RDU851989:REH851989 RNQ851989:ROD851989 RXM851989:RXZ851989 SHI851989:SHV851989 SRE851989:SRR851989 TBA851989:TBN851989 TKW851989:TLJ851989 TUS851989:TVF851989 UEO851989:UFB851989 UOK851989:UOX851989 UYG851989:UYT851989 VIC851989:VIP851989 VRY851989:VSL851989 WBU851989:WCH851989 WLQ851989:WMD851989 WVM851989:WVZ851989 E917525:R917525 JA917525:JN917525 SW917525:TJ917525 ACS917525:ADF917525 AMO917525:ANB917525 AWK917525:AWX917525 BGG917525:BGT917525 BQC917525:BQP917525 BZY917525:CAL917525 CJU917525:CKH917525 CTQ917525:CUD917525 DDM917525:DDZ917525 DNI917525:DNV917525 DXE917525:DXR917525 EHA917525:EHN917525 EQW917525:ERJ917525 FAS917525:FBF917525 FKO917525:FLB917525 FUK917525:FUX917525 GEG917525:GET917525 GOC917525:GOP917525 GXY917525:GYL917525 HHU917525:HIH917525 HRQ917525:HSD917525 IBM917525:IBZ917525 ILI917525:ILV917525 IVE917525:IVR917525 JFA917525:JFN917525 JOW917525:JPJ917525 JYS917525:JZF917525 KIO917525:KJB917525 KSK917525:KSX917525 LCG917525:LCT917525 LMC917525:LMP917525 LVY917525:LWL917525 MFU917525:MGH917525 MPQ917525:MQD917525 MZM917525:MZZ917525 NJI917525:NJV917525 NTE917525:NTR917525 ODA917525:ODN917525 OMW917525:ONJ917525 OWS917525:OXF917525 PGO917525:PHB917525 PQK917525:PQX917525 QAG917525:QAT917525 QKC917525:QKP917525 QTY917525:QUL917525 RDU917525:REH917525 RNQ917525:ROD917525 RXM917525:RXZ917525 SHI917525:SHV917525 SRE917525:SRR917525 TBA917525:TBN917525 TKW917525:TLJ917525 TUS917525:TVF917525 UEO917525:UFB917525 UOK917525:UOX917525 UYG917525:UYT917525 VIC917525:VIP917525 VRY917525:VSL917525 WBU917525:WCH917525 WLQ917525:WMD917525 WVM917525:WVZ917525 E983061:R983061 JA983061:JN983061 SW983061:TJ983061 ACS983061:ADF983061 AMO983061:ANB983061 AWK983061:AWX983061 BGG983061:BGT983061 BQC983061:BQP983061 BZY983061:CAL983061 CJU983061:CKH983061 CTQ983061:CUD983061 DDM983061:DDZ983061 DNI983061:DNV983061 DXE983061:DXR983061 EHA983061:EHN983061 EQW983061:ERJ983061 FAS983061:FBF983061 FKO983061:FLB983061 FUK983061:FUX983061 GEG983061:GET983061 GOC983061:GOP983061 GXY983061:GYL983061 HHU983061:HIH983061 HRQ983061:HSD983061 IBM983061:IBZ983061 ILI983061:ILV983061 IVE983061:IVR983061 JFA983061:JFN983061 JOW983061:JPJ983061 JYS983061:JZF983061 KIO983061:KJB983061 KSK983061:KSX983061 LCG983061:LCT983061 LMC983061:LMP983061 LVY983061:LWL983061 MFU983061:MGH983061 MPQ983061:MQD983061 MZM983061:MZZ983061 NJI983061:NJV983061 NTE983061:NTR983061 ODA983061:ODN983061 OMW983061:ONJ983061 OWS983061:OXF983061 PGO983061:PHB983061 PQK983061:PQX983061 QAG983061:QAT983061 QKC983061:QKP983061 QTY983061:QUL983061 RDU983061:REH983061 RNQ983061:ROD983061 RXM983061:RXZ983061 SHI983061:SHV983061 SRE983061:SRR983061 TBA983061:TBN983061 TKW983061:TLJ983061 TUS983061:TVF983061 UEO983061:UFB983061 UOK983061:UOX983061 UYG983061:UYT983061 VIC983061:VIP983061 VRY983061:VSL983061 WBU983061:WCH983061 WLQ983061:WMD983061 E21:R21">
